--- a/output/agencyreviewteams.xlsx
+++ b/output/agencyreviewteams.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F620"/>
+  <dimension ref="A1:H620"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,6 +385,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>most_recent_employment_standardized</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>employment_retired_indicated</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>source_of_funding</t>
         </is>
       </c>
@@ -412,6 +422,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>BETTER ANGELS SOCIETY</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -434,6 +449,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>DISTRICT OF COLUMBIA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -461,6 +481,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>AMERICAN ASSOCIATION FOR THE ADVANCEMENT OF SCIENCE</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -483,6 +508,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>AMERICANS FOR THE ARTS</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -510,6 +540,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF PENNSYLVANIA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -532,6 +567,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF DELAWARE</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -554,6 +594,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>TRINITY UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -576,6 +621,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>ASSOCIATION OF AMERICAN MEDICAL COLLEGES</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -603,6 +653,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>STATE OF NEW YORK</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -625,6 +680,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>STATE OF CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -647,6 +707,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>HOPE ENTERPRISE CORPORATION</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -669,6 +734,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>DISTRICT OF COLUMBIA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -691,6 +761,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>UNITED AUTOMOBILE AEROSPACE AND AGRICULTURAL IMPLEMENT WORKERS</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -718,6 +793,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>BIDEN FOR PRESIDENT</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -740,6 +820,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>JUSTICE CATALYST LAW INC</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -762,6 +847,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -784,6 +874,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>SOPHANT CONSULTING</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -806,6 +901,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>COVE HILL PARTNERS</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -833,6 +933,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>SCHMIDT FUTURES</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -855,6 +960,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF CHICAGO</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -877,6 +987,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>GEORGE WASHINGTON UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -904,6 +1019,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>CENTER FOR EARTH ENERGY AND DEMOCRACY</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -926,6 +1046,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>LATHAM &amp; WATKINS LLP</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -948,6 +1073,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>CLARK GROUP LLC</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -970,6 +1100,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>BLOOMBERG PHILANTHROPIES</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -997,6 +1132,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF PITTSBURGH</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1019,6 +1159,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>CLIFFORD CHANCE US LLP</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1041,6 +1186,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>SANTA CLARA UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1063,6 +1213,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>GREATER WASHINGTON BLACK CHAMBER OF COMMERCE</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1090,6 +1245,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>VALUES PARTNERSHIPS</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1112,6 +1272,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>WILEY REIN LLP</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1134,6 +1299,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>THIRD WAY</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1156,6 +1326,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>NATIONAL AUDUBON SOCIETY</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1178,6 +1353,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>CNKINDER INC</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1200,6 +1380,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>GLOBAL COUNSEL LLC</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1222,6 +1407,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1244,6 +1434,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>EMPIRE STATE DEVELOPMENT</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1266,6 +1461,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>NATIONAL CONFERENCE ON CITIZENSHIP</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1288,6 +1488,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>NATIONAL MARINE SANCTUARY FOUNDATION</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1310,6 +1515,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>AMERICAN NATIONAL STANDARDS INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1337,6 +1547,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>STATE OF NEW MEXICO</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1359,6 +1574,16 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>NATIONAL OCEANIC AND ATMOSPHERIC ADMINISTRATION</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>(RETIRED)</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1381,6 +1606,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>PEPSICO</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1403,6 +1633,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>HILLS &amp; COMPANY</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1430,6 +1665,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>ROOSEVELT INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1457,6 +1697,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>VISA INC</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1479,6 +1724,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>OCEAN WONKS</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1501,6 +1751,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>PEW CHARITABLE TRUSTS</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1528,6 +1783,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>CENTER FOR STRATEGIC AND INTERNATIONAL STUDIES</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1555,6 +1815,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>SENATOR ELIZABETH WARREN</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -1582,6 +1847,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>NYC HEALTH + HOSPITALS</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -1604,6 +1874,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>CENTER FOR A NEW AMERICAN SECURITY</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1631,6 +1906,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>MANATT PHELPS AND PHILLIPS LLP</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1653,6 +1933,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>NEW AMERICA</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1680,6 +1965,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>NUCLEAR THREAT INITIATIVE</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1702,6 +1992,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>OTHERSIDE CONSULTING LLC</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1724,6 +2019,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>CENTER FOR STRATEGIC AND INTERNATIONAL STUDIES</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1746,6 +2046,16 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>DEPARTMENT OF STATE</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>(RETIRED)</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1768,6 +2078,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>REBELLION DEFENSE</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1795,6 +2110,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1822,6 +2142,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>STATE OF MICHIGAN</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1844,6 +2169,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>GEORGE WASHINGTON UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1866,6 +2196,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>CENTER FOR STRATEGIC AND INTERNATIONAL STUDIES</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1893,6 +2228,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1920,6 +2260,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>IDA SCIENCE AND TECHNOLOGY POLICY INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1942,6 +2287,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>STENNIS CENTER FOR PUBLIC SERVICE</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1964,6 +2314,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>IMBUE GROUP INC</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -1986,6 +2341,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>FLORIDA INTERNATIONAL UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2013,6 +2373,11 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2035,6 +2400,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>STATE OF ILLINOIS</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2057,6 +2427,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>RAND CORPORATION</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2079,6 +2454,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>CENTER FOR A NEW AMERICAN SECURITY</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2101,6 +2481,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>NUCLEAR THREAT INITIATIVE</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2123,6 +2508,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>JPMORGAN CHASE &amp; CO</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2145,6 +2535,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>CACI INTERNATIONAL INC</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2172,6 +2567,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>YALE UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2194,6 +2594,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>CLOUDFLARE INC</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2216,6 +2621,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>RAND CORPORATION</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2238,6 +2648,11 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>SEATTLE/KING COUNTY</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2260,6 +2675,11 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>SENSHI AME ADVISORS LLC</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2282,6 +2702,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>INSTITUTE OF ELECTRONIC AND ELECTRICAL ENGINEERS INC</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2304,6 +2729,11 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>RAND CORPORATION</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2331,6 +2761,11 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>CRANEMERE GROUP</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2358,6 +2793,11 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>LEARNING POLICY INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2380,6 +2820,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>EDUCATION TRUST</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2402,6 +2847,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>AMERICAN FEDERATION OF TEACHERS</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2424,6 +2874,16 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>SENATOR ROBERT P CASEY JR</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>(RETIRED)</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2446,6 +2906,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2468,6 +2933,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF TEXAS</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2490,6 +2960,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>LEARNING POLICY INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2512,6 +2987,11 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>MASSMUTUAL</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2534,6 +3014,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>BIDEN FOR PRESIDENT</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -2556,6 +3041,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>ALLIANCE FOR EXCELLENT EDUCATION</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2578,6 +3068,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>NATIONAL EDUCATION ASSOCIATION</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2600,6 +3095,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>OPEN EDUCATION GLOBAL</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2622,6 +3122,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>JOHN JAY COLLEGE OF CRIMINAL JUSTICE</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2644,6 +3149,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>INSTITUTE FOR COLLEGE ACCESS &amp; SUCCESS</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2666,6 +3176,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>UNIDOSUS</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2688,6 +3203,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>CENTER FOR AMERICAN PROGRESS</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2710,6 +3230,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>HOWARD UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2732,6 +3257,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
+          <t>THADDEUS STEVENS COLLEGE OF TECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2754,6 +3284,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
+          <t>TEACH PLUS INC</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2776,6 +3311,11 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
+          <t>AMERICAN FEDERATION OF TEACHERS</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2798,6 +3338,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
+          <t>AMERICAN FEDERATION OF TEACHERS</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2820,6 +3365,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
+          <t>CENTURY FOUNDATION</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2842,6 +3392,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
+          <t>RABEN GROUP LLC</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2869,6 +3424,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
+          <t>STANFORD UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2891,6 +3451,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
+          <t>NEW MEXICO STATE UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2913,6 +3478,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
+          <t>MARGUERITE CASEY FOUNDATION</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2935,6 +3505,11 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
+          <t>GREEN MARBLE GROUP</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2957,6 +3532,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
+          <t>CARBON180</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -2979,6 +3559,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3001,6 +3586,11 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
+          <t>COLUMBIA UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3023,6 +3613,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
+          <t>CONNECTICUT GREEN BANK</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3045,6 +3640,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3067,6 +3667,11 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
+          <t>STATE OF CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3089,6 +3694,11 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
+          <t>COLUMBIA UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3111,6 +3721,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
+          <t>AFL-CIO</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3133,6 +3748,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
+          <t>GATES VENTURES</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3155,6 +3775,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
+          <t>ROC GROUP</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3177,6 +3802,11 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
+          <t>ENERGY FOUNDATION</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3199,6 +3829,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3221,6 +3856,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
+          <t>HIGH WATER MARK LLC</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3243,6 +3883,11 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3265,6 +3910,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
+          <t>INTERNATIONAL ENERGY AGENCY</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3287,6 +3937,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
+          <t>ENVIRONMENTAL DEFENSE FUND</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3309,6 +3964,11 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
+          <t>BFPCC INC</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -3336,6 +3996,11 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
+          <t>MANATT PHELPS AND PHILLIPS LLP</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3363,6 +4028,11 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
+          <t>STATE OF MICHIGAN</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3385,6 +4055,11 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
+          <t>ASPEN INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3407,6 +4082,11 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
+          <t>TRUST FOR AMERICA'S HEALTH</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3429,6 +4109,11 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
+          <t>BOIES SCHILLER FLEXNER LLP</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3456,6 +4141,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
+          <t>NYC HEALTH + HOSPITALS</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -3478,6 +4168,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
+          <t>EVERCORE ISI</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3500,6 +4195,11 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
+          <t>HEALTH MANAGEMENT ASSOCIATES</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3522,6 +4222,11 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
+          <t>IN-Q-TEL</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3544,6 +4249,11 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3571,6 +4281,11 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
+          <t>NUCLEAR THREAT INITIATIVE</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3593,6 +4308,11 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
+          <t>I AM ALS</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3615,6 +4335,11 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
+          <t>HOGAN LOVELLS LLP</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3637,6 +4362,11 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3659,6 +4389,11 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF GEORGIA</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3681,6 +4416,11 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
+          <t>PEW CHARITABLE TRUSTS</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3703,6 +4443,11 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
+          <t>FAMILIES USA</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3725,6 +4470,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
+          <t>AMITA HEALTH</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3747,6 +4497,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
+          <t>MIGRATION POLICY INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3769,6 +4524,11 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
+          <t>DEVOTED HEALTH</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3791,6 +4551,11 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
+          <t>JOHNS HOPKINS UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3813,6 +4578,11 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
+          <t>PATH</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3835,6 +4605,11 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
+          <t>ALLOY</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3862,6 +4637,11 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
+          <t>GEORGETOWN UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3889,6 +4669,11 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3916,6 +4701,11 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
+          <t>CENTER FOR GLOBAL DEVELOPMENT</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3938,6 +4728,11 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF HAWAII</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3960,6 +4755,11 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
+          <t>STATE OF NEW JERSEY</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -3982,6 +4782,11 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
+          <t>ROOSEVELT INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -4009,6 +4814,11 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4031,6 +4841,11 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
+          <t>SERVICE EMPLOYEES INTERNATIONAL UNION</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4053,6 +4868,11 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
+          <t>INSTITUTES FOR BEHAVIOR RESOURCES INC</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4075,6 +4895,11 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
+          <t>GEORGETOWN UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4097,6 +4922,11 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
+          <t>CENTER ON BUDGET AND POLICY PRIORITIES</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4119,6 +4949,11 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
+          <t>GUIDEHOUSE INC</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4141,6 +4976,11 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
+          <t>BIDEN FOR PRESIDENT</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -4163,6 +5003,11 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
+          <t>CO-EQUAL</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4185,6 +5030,11 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4207,6 +5057,11 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
+          <t>MEDSTAR HEALTH</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4229,6 +5084,11 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
+          <t>RESOLVE TO SAVE LIVES AN INITIATIVE OF VITAL STRATEGIES</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4256,6 +5116,11 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
+          <t>YALE UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4278,6 +5143,11 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF TEXAS</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4305,6 +5175,11 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
+          <t>CRANEMERE GROUP</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4332,6 +5207,11 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
+          <t>AMERICA'S VOICE</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4354,6 +5234,11 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4381,6 +5266,11 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
+          <t>NYC HEALTH + HOSPITALS</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -4408,6 +5298,11 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
+          <t>MANATT PHELPS AND PHILLIPS LLP</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4435,6 +5330,11 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
+          <t>NUCLEAR THREAT INITIATIVE</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4457,6 +5357,11 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
+          <t>INNOVATIVE EMERGENCY MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4479,6 +5384,11 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
+          <t>ARGONNE NATIONAL LABORATORY</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4501,6 +5411,11 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
+          <t>STATE OF NEW MEXICO</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4523,6 +5438,11 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
+          <t>TOFFLER ASSOCIATES INC</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4545,6 +5465,11 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
+          <t>DEMOCRACY FUND</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4567,6 +5492,11 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
+          <t>AMERICAN CIVIL LIBERTIES UNION</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4589,6 +5519,11 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
+          <t>ONE CONCERN INC</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4611,6 +5546,11 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
+          <t>BIPARTISAN COMMISSION ON BIODEFENSE</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4638,6 +5578,11 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
+          <t>STATE OF MICHIGAN</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4665,6 +5610,11 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4687,6 +5637,11 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
+          <t>SHEPPARD MULLIN RICHTER &amp; HAMPTON LLP</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4709,6 +5664,11 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
+          <t>INTERNATIONAL PUBLIC SAFETY DATA INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4736,6 +5696,11 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4763,6 +5728,11 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
+          <t>CHAN ZUCKERBERG INITIATIVE</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4785,6 +5755,11 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4807,6 +5782,11 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
+          <t>RAND CORPORATION</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4834,6 +5814,11 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
+          <t>LEVY GROUP INC</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4856,6 +5841,11 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4878,6 +5868,11 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
+          <t>CAPITAL ONE FINANCIAL CORPORATION</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4900,6 +5895,11 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
+          <t>DELOITTE</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4922,6 +5922,11 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
+          <t>CROWELL &amp; MORING LLP</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4944,6 +5949,11 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
+          <t>GOOGLE</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4971,6 +5981,11 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
+          <t>MASSACHUSETTS BAY TRANSPORTATION AUTHORITY</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -4993,6 +6008,11 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
+          <t>PAUL HASTINGS LLP</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5020,6 +6040,11 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
+          <t>YALE UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5042,6 +6067,11 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
+          <t>ADVOCACY BLUEPRINTS LLC</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5064,6 +6094,11 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>URBAN ALLIANCE</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5091,6 +6126,11 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
+          <t>CRANEMERE GROUP</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5118,6 +6158,11 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
+          <t>URBAN INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5140,6 +6185,11 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
+          <t>UNIDOSUS</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5162,6 +6212,11 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
+          <t>CENTER ON BUDGET AND POLICY PRIORITIES</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5184,6 +6239,11 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
+          <t>BLUE MERIDIAN PARTNERS</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5206,6 +6266,11 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
+          <t>BALTIMORE REGIONAL HOUSING PARTNERSHIP</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5228,6 +6293,11 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
+          <t>NATIONAL COMMUNITY STABILIZATION TRUST</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5250,6 +6320,11 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
+          <t>URBAN INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5272,6 +6347,11 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
+          <t>COMMUNITY SOLUTIONS</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5294,6 +6374,11 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
+          <t>URBAN INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5316,6 +6401,11 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
+          <t>STATE OF NEW YORK</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5338,6 +6428,16 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
+          <t>NATIONAL CREDIT UNION ADMINISTRATION</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>(RETIRED)</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5360,6 +6460,11 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
+          <t>HOUSING PARTNERSHIP NETWORK</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5382,6 +6487,11 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
+          <t>NEW YORK UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -5404,6 +6514,11 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
+          <t>US HOUSE OF REPRESENTATIVES</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
           <t>Transition — Appropriation</t>
         </is>
       </c>
@@ -5426,6 +6541,11 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
+          <t>NATIONAL ASSOCIATION FOR LATINO COMMUNITY ASSET BUILDERS</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5448,6 +6568,11 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5470,6 +6595,11 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
+          <t>BIDEN FOR PRESIDENT</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -5492,6 +6622,11 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
+          <t>STATE OF OREGON</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5514,6 +6649,11 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
+          <t>CENTER FOR COMMUNITY SELF-HELP</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5536,6 +6676,11 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
+          <t>ACCESS LIVING</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5558,6 +6703,11 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
+          <t>CALIFORNIA COMMUNITY FOUNDATION</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5585,6 +6735,11 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
+          <t>DUKE UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5607,6 +6762,11 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
+          <t>HARRIS WILTSHIRE AND GRANNIS LLP</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5629,6 +6789,11 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
+          <t>LINKLATERS LLP</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5651,6 +6816,11 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
+          <t>LATHAM &amp; WATKINS LLP</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5673,6 +6843,11 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
+          <t>DATAKIND</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5695,6 +6870,11 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
+          <t>ARNOLD VENTURES LLC</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5717,6 +6897,11 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
+          <t>HUDSON-WEBBER FOUNDATION</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5739,6 +6924,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
+          <t>WILMERHALE LLC</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5761,6 +6951,11 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
+          <t>MAYER BROWN LLP</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5783,6 +6978,11 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
+          <t>MORGAN LEWIS &amp; BOCKIUS LLP</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5805,6 +7005,11 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
+          <t>JONES DAY</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5827,6 +7032,11 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
+          <t>TRISTER ROSS SCHADLER &amp; GOLD PLLC</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5849,6 +7059,11 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
+          <t>COOLEY LLP</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5871,6 +7086,11 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
+          <t>NATIONAL EDUCATION ASSOCIATION</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5893,6 +7113,11 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
+          <t>INDIANA UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5915,6 +7140,11 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
+          <t>STANFORD UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5937,6 +7167,11 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
+          <t>PUBLIC KNOWLEDGE</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5959,6 +7194,11 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
+          <t>HARVARD UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -5981,6 +7221,11 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
+          <t>GEORGETOWN UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6003,6 +7248,11 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
+          <t>DAVIS POLK &amp; WARDWELL LLP</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6025,6 +7275,11 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
+          <t>DELAWARE DEPARTMENT OF JUSTICE</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6047,6 +7302,11 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
+          <t>BRONX DISTRICT ATTORNEY'S OFFICE</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6069,6 +7329,11 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF MICHIGAN</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6091,6 +7356,11 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
+          <t>FAIR FIGHT ACTION</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6113,6 +7383,11 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
+          <t>2028 SUMMER OLYMPICS</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6135,6 +7410,11 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
+          <t>YALE UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6157,6 +7437,11 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
+          <t>HEALING JUSTICE PROJECT</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6179,6 +7464,11 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
+          <t>CENTER FOR FAMILY SAFETY AND HEALING</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6201,6 +7491,11 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
+          <t>HUNTON ANDREWS KURTH LLP</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6228,6 +7523,11 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
+          <t>FISCALNOTE</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6250,6 +7550,11 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
+          <t>COMMUNICATIONS WORKERS OF AMERICA</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6272,6 +7577,11 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
+          <t>SHERMAN DUNN PC</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6294,6 +7604,11 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
+          <t>NORTHEASTERN UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6316,6 +7631,11 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF MARYLAND</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6338,6 +7658,11 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
+          <t>SERVICE EMPLOYEES INTERNATIONAL UNION</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6360,6 +7685,11 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
+          <t>AMALGAMATED TRANSIT UNION</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6382,6 +7712,11 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
+          <t>BIDEN FOR PRESIDENT</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -6404,6 +7739,11 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
+          <t>NATIONAL EMPLOYMENT LAW PROJECT</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6426,6 +7766,11 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
+          <t>CENTER FOR AMERICAN PROGRESS</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6448,6 +7793,11 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
+          <t>CENTER FOR LAW AND SOCIAL POLICY</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6470,6 +7820,11 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
+          <t>NEW AMERICA</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6492,6 +7847,11 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6514,6 +7874,11 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6536,6 +7901,11 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
+          <t>UNITED ASSOCIATION</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6558,6 +7928,11 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
+          <t>NATIONAL DAY LABORER ORGANIZING NETWORK</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6580,6 +7955,11 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
+          <t>STATE OF CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6602,6 +7982,11 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6624,6 +8009,11 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6646,6 +8036,11 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
+          <t>AMERICAN FEDERATION OF STATE COUNTY AND MUNICIPAL EMPLOYEES</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6668,6 +8063,11 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
+          <t>SENATOR BERNIE SANDERS</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -6690,6 +8090,11 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
+          <t>STATE OF CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6712,6 +8117,11 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6734,6 +8144,11 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6756,6 +8171,11 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
+          <t>SOLIDARITY CENTER</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6778,6 +8198,11 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
+          <t>JOBS FOR THE FUTURE INC</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6800,6 +8225,11 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
+          <t>NATIONAL EMPLOYMENT LAW PROJECT</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6822,6 +8252,11 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
+          <t>URBAN INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6849,6 +8284,11 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
+          <t>ALBRIGHT STONEBRIDGE GROUP</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6871,6 +8311,11 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
+          <t>BROOKINGS INSTITUTION</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6893,6 +8338,11 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
+          <t>UNITED NATIONS FOUNDATION</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6915,6 +8365,11 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
+          <t>LINK HOUSTON</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6937,6 +8392,11 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
+          <t>GERMAN MARSHALL FUND OF UNITED STATES</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -6959,6 +8419,11 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -6986,6 +8451,11 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
+          <t>CARE</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7008,6 +8478,11 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
+          <t>OPEN SOCIETY FOUNDATIONS</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7030,6 +8505,11 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7052,6 +8532,11 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
+          <t>ALBRIGHT STONEBRIDGE GROUP</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7074,6 +8559,11 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7096,6 +8586,11 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
+          <t>INTERNATIONAL ASSOCIATION OF MACHINISTS AND AEROSPACE WORKERS</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7118,6 +8613,11 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
+          <t>ALBRIGHT STONEBRIDGE GROUP</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7140,6 +8640,11 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
+          <t>WOMEN OF COLOR ADVANCING PEACE AND SECURITY</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7162,6 +8667,11 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
+          <t>BOSTON CONSULTING GROUP</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7189,6 +8699,11 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
+          <t>CENTER FOR GLOBAL DEVELOPMENT</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7211,6 +8726,11 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
+          <t>GERMAN MARSHALL FUND OF UNITED STATES</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7233,6 +8753,11 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
+          <t>DELOITTE</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7255,6 +8780,11 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
+          <t>ALLOY</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7277,6 +8807,11 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
+          <t>GEORGETOWN UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7299,6 +8834,11 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
+          <t>HWC INC</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7321,6 +8861,11 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
+          <t>CENTER FOR DEMOCRACY IN THE AMERICAS</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7343,6 +8888,11 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
+          <t>ESTEE LAUDER COMPANIES</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7370,6 +8920,11 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7392,6 +8947,11 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7414,6 +8974,11 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
+          <t>WASHINGTON INSTITUTE FOR NEAR EAST POLICY</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7436,6 +9001,11 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7458,6 +9028,11 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7485,6 +9060,11 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
+          <t>BROOKINGS INSTITUTION</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7507,6 +9087,11 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
+          <t>STANFORD UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7534,6 +9119,11 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
+          <t>FACEBOOK INC</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7561,6 +9151,11 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF IOWA</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7583,6 +9178,11 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
+          <t>HARVARD UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7605,6 +9205,11 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF NEVADA</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7627,6 +9232,11 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
+          <t>EVERGLADES FOUNDATION</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7649,6 +9259,11 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
+          <t>CARNEGIE MELLON UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7671,6 +9286,11 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
+          <t>NATIVE AMERICAN AGRICULTURE FUND</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7693,6 +9313,11 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
+          <t>CENTER FOR AMERICAN PROGRESS</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7715,6 +9340,11 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
+          <t>NEW YORK UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7737,6 +9367,11 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
+          <t>AMERICAN UNIVERSITY WASHINGTON COLLEGE OF LAW</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7759,6 +9394,11 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
+          <t>WYSS FOUNDATION</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7781,6 +9421,11 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
+          <t>STRONGBOW STRATEGIES</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -7803,6 +9448,11 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
+          <t>EVERGREEN ACTION</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7825,6 +9475,11 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
+          <t>COLORADO RIVER SUSTAINABILITY CAMPAIGN</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7852,6 +9507,11 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
+          <t>KEYBANK</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -7879,6 +9539,11 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7901,6 +9566,11 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF MICHIGAN</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7923,6 +9593,11 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
+          <t>NEW YORK UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7945,6 +9620,11 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
+          <t>SKADDEN ARPS SLATE MEAGHER &amp; FLOM LLP</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7967,6 +9647,11 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
+          <t>AMERICAN CIVIL LIBERTIES UNION</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -7989,6 +9674,11 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
+          <t>GEORGETOWN UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8016,6 +9706,11 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
+          <t>DEVOTED HEALTH</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8038,6 +9733,11 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
+          <t>INTERNATIONAL CAPITAL STRATEGIES LLC</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8060,6 +9760,11 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
+          <t>SIDEWALK LABS</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8082,6 +9787,11 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
+          <t>BIRMINGHAM STRONG</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8109,6 +9819,11 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
+          <t>CENTER FOR AMERICAN PROGRESS</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8131,6 +9846,11 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
+          <t>LINKEDIN CORPORATION</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8158,6 +9878,11 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
+          <t>MASSACHUSETTS INSTITUTE OF TECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8180,6 +9905,11 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
+          <t>MORTGAGE BANKERS ASSOCIATION</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8202,6 +9932,11 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
+          <t>NEW YORK CITY</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8224,6 +9959,11 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
+          <t>CENTER FOR GLOBAL DEVELOPMENT</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8246,6 +9986,11 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
+          <t>AMERICAN ECONOMIC LIBERTIES PROJECT</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8268,6 +10013,11 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
+          <t>BRIGHTSIDE BENEFIT INC</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8290,6 +10040,11 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
+          <t>RED RIVER ASSOCIATES</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8312,6 +10067,11 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
+          <t>NATIONAL ASSOCIATION OF AFFORDABLE HOUSING LENDERS</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8339,6 +10099,11 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
+          <t>BIDEN FOR PRESIDENT</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -8361,6 +10126,11 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
+          <t>CENTER FOR A NEW AMERICAN SECURITY</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8383,6 +10153,11 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
+          <t>IMPACT MASTER HOLDINGS</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8410,6 +10185,11 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
+          <t>AFL-CIO</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8432,6 +10212,11 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF MICHIGAN</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8454,6 +10239,11 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
+          <t>HARTFORD FOUNDATION FOR PUBLIC GIVING</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8476,6 +10266,11 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
+          <t>ARNOLD &amp; PORTER KAYE SCHOLER LLP</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8503,6 +10298,11 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
+          <t>OSCAR HEALTH</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8530,6 +10330,11 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
+          <t>LOS ANGELES (CITY/COUNTY)</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8552,6 +10357,11 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
+          <t>UNITED ASSOCIATION</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8574,6 +10384,11 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8596,6 +10411,11 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
+          <t>INTERNATIONAL BROTHERHOOD OF TEAMSTERS</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8618,6 +10438,11 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
+          <t>GENERATE</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8640,6 +10465,11 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
+          <t>TRANSPORT WORKERS UNION OF AMERICA AFL-CIO</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8662,6 +10492,11 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
+          <t>BIDEN FOR PRESIDENT</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -8684,6 +10519,11 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
+          <t>ASSOCIATION OF FORMER MEMBERS OF CONGRESS</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8706,6 +10546,11 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
+          <t>CITYFI</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8728,6 +10573,11 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
+          <t>US HOUSE OF REPRESENTATIVES</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
           <t>Transition — Appropriation</t>
         </is>
       </c>
@@ -8750,6 +10600,11 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
+          <t>DISTRICT OF COLUMBIA</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8772,6 +10627,11 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
+          <t>METROPOLITAN TRANSPORTATION COMMISSION</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8794,6 +10654,11 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
+          <t>CONFERENCE OF MINORITY TRANSPORTATION OFFICIALS</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8816,6 +10681,11 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
+          <t>AMALGAMATED TRANSIT UNION</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8838,6 +10708,11 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
+          <t>STATE OF CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8860,6 +10735,11 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
+          <t>STATE OF CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8882,6 +10762,11 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
+          <t>INDIANAPOLIS AIRPORT AUTHORITY</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8904,6 +10789,16 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
+          <t>TEXAS A&amp;M UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>(RETIRED)</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8926,6 +10821,11 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
+          <t>FIGMA</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8948,6 +10848,11 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
+          <t>NEW YORK CITY</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8970,6 +10875,11 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
+          <t>STATE OF NEW JERSEY</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -8997,6 +10907,11 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
+          <t>ATLAS RESEARCH LLC</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9019,6 +10934,11 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
+          <t>TABLEAU SOFTWARE</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9041,6 +10961,11 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
+          <t>PA DEMOCRATIC PARTY</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9063,6 +10988,11 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9085,6 +11015,11 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
+          <t>UNIVERSITY HOSPITAL NEWARK NJ</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9107,6 +11042,11 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
+          <t>LUCKY DOG ANIMAL RESCUE</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9129,6 +11069,11 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
+          <t>SIMPLIFED</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9151,6 +11096,11 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
+          <t>BOOZ ALLEN HAMILTON</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9173,6 +11123,11 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
+          <t>TRUMAN CENTER FOR NATIONAL POLICY AND TRUMAN NATIONAL SECURITY PROJECT</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -9195,6 +11150,11 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
+          <t>ELLISON INSTITUTE UNIVERSITY OF SOUTHERN CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9217,6 +11177,11 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
+          <t>LOS ANGELES (CITY/COUNTY)</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9239,6 +11204,11 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
+          <t>WORKMERK LLC</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9261,6 +11231,11 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
+          <t>ASCENSION</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9283,6 +11258,11 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
+          <t>CENTER FOR A NEW AMERICAN SECURITY</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9305,6 +11285,11 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
+          <t>ASCENSION</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9332,6 +11317,11 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
+          <t>EARTHJUSTICE</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9354,6 +11344,11 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
+          <t>BLUE CRAB STRATEGIES</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9376,6 +11371,11 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
+          <t>DELL TECHNOLOGIES</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9398,6 +11398,11 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
+          <t>LATHAM &amp; WATKINS LLP</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9420,6 +11425,11 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
+          <t>GRIST MAGAZINE INC</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9442,6 +11452,11 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
+          <t>HARVARD UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9464,6 +11479,11 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
+          <t>HARVARD UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9486,6 +11506,11 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
+          <t>AMERICAN UNIVERSITY WASHINGTON COLLEGE OF LAW</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9508,6 +11533,11 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9530,6 +11560,11 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
+          <t>PA DEMOCRATIC PARTY</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -9552,6 +11587,11 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
+          <t>SIERRA CLUB</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9574,6 +11614,11 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9596,6 +11641,11 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
+          <t>DEMOCRATIC NATIONAL COMMITTEE</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -9623,6 +11673,11 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
+          <t>DELOITTE</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9650,6 +11705,11 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
+          <t>GEORGETOWN UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9677,6 +11737,11 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
+          <t>CHAN ZUCKERBERG INITIATIVE</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -9699,6 +11764,11 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -9721,6 +11791,11 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
+          <t>CHAN ZUCKERBERG INITIATIVE</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9748,6 +11823,11 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
+          <t>US HOUSE OF REPRESENTATIVES</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
           <t>Transition — Appropriation</t>
         </is>
       </c>
@@ -9770,6 +11850,11 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9792,6 +11877,11 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
+          <t>DLA PIPER LLP</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9814,6 +11904,11 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9841,6 +11936,11 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
+          <t>MASSACHUSETTS INSTITUTE OF TECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9863,6 +11963,11 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
+          <t>GEORGETOWN UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9890,6 +11995,11 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9912,6 +12022,11 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
+          <t>MICHIGAN STATE UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9934,6 +12049,11 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
+          <t>WASHINGTON CENTER FOR EQUITABLE GROWTH</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9961,6 +12081,11 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
+          <t>CENTER FOR AMERICAN PROGRESS</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -9983,6 +12108,11 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF MICHIGAN</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10005,6 +12135,11 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
+          <t>VIRGINIA COORDINATED CAMPAIGN</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -10032,6 +12167,11 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
+          <t>MASSACHUSETTS INSTITUTE OF TECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10054,6 +12194,11 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
+          <t>BETTER MARKETS INC</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10076,6 +12221,11 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
+          <t>NEW YORK UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10098,6 +12248,11 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
+          <t>SERVICE EMPLOYEES INTERNATIONAL UNION</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10120,6 +12275,11 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
+          <t>COLUMBIA UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10147,6 +12307,11 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
+          <t>AFL-CIO</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10169,6 +12334,11 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
+          <t>ORRICK HERRINGTON &amp; SUTCLIFFE LLP</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10196,6 +12366,16 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
+          <t>FEDERAL TRADE COMMISSION</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>(RETIRED)</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10218,6 +12398,11 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
+          <t>BROOKINGS INSTITUTION</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10240,6 +12425,11 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
+          <t>GEORGETOWN UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10267,6 +12457,11 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
+          <t>ELEVATE LLC</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10289,6 +12484,11 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
+          <t>STATE OF NORTH CAROLINA</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10311,6 +12511,11 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
+          <t>DEMOCRATIC NATIONAL COMMITTEE</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10333,6 +12538,11 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
+          <t>SALESFORCE</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10355,6 +12565,11 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
+          <t>DISTRICT OF COLUMBIA</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10377,6 +12592,11 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
+          <t>CLIO STRATEGIES LLC</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10404,6 +12624,11 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10431,6 +12656,11 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
+          <t>ANKURA CONSULTING</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10453,6 +12683,11 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
+          <t>NEW YORK UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10475,6 +12710,11 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10497,6 +12737,11 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10519,6 +12764,11 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
+          <t>BRIGHTHIVE</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10541,6 +12791,11 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
+          <t>GAMBLE ADVISORY GROUP</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10568,6 +12823,11 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10590,6 +12850,11 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
+          <t>HUNTINGTON INGALLS INDUSTRIES</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10612,6 +12877,11 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
+          <t>OVERSIGHT BOARD ADMINISTRATION</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10634,6 +12904,11 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10656,6 +12931,11 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
+          <t>GEORGE WASHINGTON UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10678,6 +12958,11 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
+          <t>FACEBOOK INC</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10700,6 +12985,11 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
+          <t>MORRISON &amp; FOERSTER LLC</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10722,6 +13012,16 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
+          <t>CENTRAL INTELLIGENCE AGENCY</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>(RETIRED)</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10744,6 +13044,11 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
+          <t>WALT DISNEY COMPANY</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10766,6 +13071,11 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10788,6 +13098,11 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10810,6 +13125,11 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
+          <t>UBER</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10832,6 +13152,11 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
+          <t>BROOKINGS INSTITUTION</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10854,6 +13179,11 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10876,6 +13206,11 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
+          <t>HELENA FOUNDATION</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10898,6 +13233,16 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
+          <t>CENTRAL INTELLIGENCE AGENCY</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>(RETIRED)</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10920,6 +13265,11 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
+          <t>VELEZ SECURITY SOLUTIONS LLC</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10942,6 +13292,11 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
+          <t>MCCHRYSTAL GROUP</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10969,6 +13324,11 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
+          <t>BILL &amp; MELINDA GATES FOUNDATION</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -10996,6 +13356,11 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
+          <t>ALBRIGHT STONEBRIDGE GROUP</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11018,6 +13383,11 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
+          <t>US BANK</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11040,6 +13410,11 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
+          <t>OATLY</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11062,6 +13437,11 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
+          <t>LAUDES FOUNDATION</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11084,6 +13464,11 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
+          <t>WHITE &amp; CASE LLP</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11106,6 +13491,11 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
+          <t>AMERICAN CIVIL LIBERTIES UNION</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11128,6 +13518,16 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
+          <t>UNITED STATES AGENCY FOR INTERNATIONAL DEVELOPMENT</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>(RETIRED)</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11150,6 +13550,11 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
+          <t>SUMS 15 HOLDINGS LLC</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11172,6 +13577,11 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
+          <t>MERCY CORPS</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11194,6 +13604,11 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
+          <t>MOVEMENT COOPERATIVE</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11216,6 +13631,11 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
+          <t>LIGHTSMITH GROUP</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11238,6 +13658,11 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
+          <t>GEORGETOWN UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11260,6 +13685,11 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
+          <t>REFUGEES INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11287,6 +13717,11 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
+          <t>WESTEXEC ADVISORS</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11309,6 +13744,11 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
+          <t>ROCKY MOUNTAIN INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11336,6 +13776,11 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11358,6 +13803,11 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
+          <t>BREAD FOR THE WORLD</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11385,6 +13835,11 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
+          <t>FACEBOOK INC</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11412,6 +13867,11 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
+          <t>SMITHSONIAN INSTITUTION</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11434,6 +13894,11 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF COLORADO</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11456,6 +13921,11 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
+          <t>DARTMOUTH COLLEGE</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11483,6 +13953,11 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
+          <t>IDA SCIENCE AND TECHNOLOGY POLICY INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11505,6 +13980,11 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11532,6 +14012,11 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
+          <t>AMERICAN CIVIL LIBERTIES UNION</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11554,6 +14039,11 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
+          <t>GEORGIA INSTITUTE OF TECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11576,6 +14066,11 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
+          <t>AIR LINE PILOTS ASSOCIATION</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11603,6 +14098,11 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
+          <t>NATIONAL SECURITY ACTION</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11625,6 +14125,11 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF PENNSYLVANIA</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -11647,6 +14152,11 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
+          <t>JOHNS HOPKINS UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -11669,6 +14179,11 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
+          <t>PENFED FOUNDATION</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11691,6 +14206,11 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
+          <t>WACHTELL LIPTON ROSEN &amp; KATZ</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11713,6 +14233,11 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
+          <t>SIDLEY AUSTIN LLP</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11735,6 +14260,11 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
+          <t>AIRBNB INC</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11757,6 +14287,11 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
+          <t>UNITED STATES INSTITUTE OF PEACE</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11779,6 +14314,11 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
+          <t>STANFORD UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11806,6 +14346,11 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
+          <t>GEORGETOWN UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11833,6 +14378,11 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
+          <t>CHAN ZUCKERBERG INITIATIVE</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -11855,6 +14405,11 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
+          <t>CENTER FOR AMERICAN PROGRESS</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11877,6 +14432,11 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -11899,6 +14459,11 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
+          <t>SEQUOIA CAPITAL OPERATIONS LLC</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11921,6 +14486,11 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
+          <t>BIDEN FOR PRESIDENT</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -11943,6 +14513,11 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
+          <t>CITY OF LOS ANGELES</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11970,6 +14545,11 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -11997,6 +14577,11 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12024,6 +14609,11 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
+          <t>PRINCETON UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12051,6 +14641,11 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
+          <t>SENATOR ELIZABETH WARREN</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -12073,6 +14668,11 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
+          <t>LYFT INC</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12095,6 +14695,11 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
+          <t>GEORGE WASHINGTON UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12122,6 +14727,11 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
+          <t>WESTEXEC ADVISORS</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12144,6 +14754,11 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
+          <t>AIRBNB INC</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12166,6 +14781,11 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
+          <t>MEOW WOLF INC</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12188,6 +14808,11 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12215,6 +14840,11 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
+          <t>MASSACHUSETTS BAY TRANSPORTATION AUTHORITY</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12237,6 +14867,11 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
+          <t>BROOKINGS INSTITUTION</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12264,6 +14899,11 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
+          <t>MARCH OF DIMES</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12286,6 +14926,11 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
+          <t>GEORGETOWN UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12308,6 +14953,11 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
+          <t>URBAN INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12330,6 +14980,11 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
+          <t>WASHINGTON OFFICE ON LATIN AMERICA</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12357,6 +15012,11 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
+          <t>AMERICAN CIVIL LIBERTIES UNION</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12384,6 +15044,11 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
+          <t>LEVY GROUP INC</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12411,6 +15076,11 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
+          <t>PHILANTHROPY NORTHWEST</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12433,6 +15103,11 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
+          <t>COLLEGE PROMISE CAMPAIGN</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12455,6 +15130,11 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
+          <t>DKC PUBLIC RELATIONS</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12477,6 +15157,11 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
+          <t>PARTNERSHIP FOR PUBLIC SERVICE</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12499,6 +15184,11 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
+          <t>PRUDENTIAL PLC</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12521,6 +15211,11 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
+          <t>NATIONAL EDUCATION ASSOCIATION</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12543,6 +15238,11 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
+          <t>DEMOCRACY FORWARD FOUNDATION</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12565,6 +15265,11 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
+          <t>1560 LLC</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12587,6 +15292,11 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
+          <t>MARKLE FOUNDATION</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12609,6 +15319,11 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
+          <t>COVINGTON &amp; BURLING LLP</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12636,6 +15351,11 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
+          <t>ASSOCIATION OF SCIENCE AND TECHNOLOGY CENTERS</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12658,6 +15378,11 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
+          <t>NUCLEAR THREAT INITIATIVE</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12685,6 +15410,11 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
+          <t>AMERICAN ASSOCIATION FOR THE ADVANCEMENT OF SCIENCE</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12712,6 +15442,11 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF PENNSYLVANIA</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12734,6 +15469,11 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
+          <t>GULF OF MAINE RESEARCH INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12761,6 +15501,11 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12783,6 +15528,11 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
+          <t>EVGO</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12810,6 +15560,11 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12837,6 +15592,11 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12859,6 +15619,11 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF MIAMI</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12881,6 +15646,11 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
+          <t>DROPBOX</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12903,6 +15673,11 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
+          <t>DIRECTORS GUILD OF AMERICA</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12930,6 +15705,11 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
+          <t>VALUES PARTNERSHIPS</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12952,6 +15732,11 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
+          <t>AFL-CIO</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12974,6 +15759,11 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
+          <t>URBAN INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -12996,6 +15786,11 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
+          <t>ALLIANCE FOR AMERICAN MANUFACTURING</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13023,6 +15818,11 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
+          <t>STATE OF NEW MEXICO</t>
+        </is>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13045,6 +15845,11 @@
       </c>
       <c r="F551" t="inlineStr">
         <is>
+          <t>MEDIAMATH</t>
+        </is>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13067,6 +15872,11 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
+          <t>COUNCIL ON FOREIGN RELATIONS</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13094,6 +15904,11 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
+          <t>ROOSEVELT INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13121,6 +15936,11 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
+          <t>VISA INC</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13143,6 +15963,11 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
+          <t>HARVARD UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13165,6 +15990,11 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
+          <t>CENTER FOR AMERICAN PROGRESS</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13192,6 +16022,11 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
+          <t>HARVARD UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13219,6 +16054,11 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
+          <t>NEW YORK UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13241,6 +16081,11 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
+          <t>1ST CHOICE CREDIT UNION</t>
+        </is>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13268,6 +16113,11 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
+          <t>DEVOTED HEALTH</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13290,6 +16140,11 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
+          <t>MARKLE FOUNDATION</t>
+        </is>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13312,6 +16167,11 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
+          <t>MEDSPHERE SYSTEMS CORPORATION</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13334,6 +16194,11 @@
       </c>
       <c r="F563" t="inlineStr">
         <is>
+          <t>STATE OF CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13356,6 +16221,11 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
+          <t>FUTURE PARTNERS LLC</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13378,6 +16248,11 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
+          <t>DEMOCRATIC NATIONAL COMMITTEE</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -13400,6 +16275,11 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
+          <t>NATIONAL CENTER FOR AMERICAN INDIAN ENTERPRISE DEVELOPMENT</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13422,6 +16302,11 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
+          <t>C-PACE ALLIANCE</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13444,6 +16329,11 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
+          <t>ROTI MODERN MEDITERRANEAN</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13466,6 +16356,11 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
+          <t>STRIPE</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13488,6 +16383,11 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
+          <t>NEXT STREET</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13510,6 +16410,11 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
+          <t>PUBLIC PRIVATE STRATEGIES</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13532,6 +16437,11 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
+          <t>UNIVERSIDAD DEL SAGRADO CORAZON IN SAN JUAN</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13554,6 +16464,11 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
+          <t>FACEBOOK INC</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13581,6 +16496,11 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
+          <t>OSCAR HEALTH</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13608,6 +16528,11 @@
       </c>
       <c r="F575" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13630,6 +16555,11 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
+          <t>AMERICAN FEDERATION OF STATE COUNTY AND MUNICIPAL EMPLOYEES</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13652,6 +16582,11 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
+          <t>REBELLION DEFENSE</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13674,6 +16609,11 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
+          <t>URBAN INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13701,6 +16641,11 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13723,6 +16668,11 @@
       </c>
       <c r="F580" t="inlineStr">
         <is>
+          <t>NATIONAL DEMOCRATIC INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13745,6 +16695,16 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
+          <t>MIDDLE EAST BROADCASTING NETWORKS</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>(RETIRED)</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13767,6 +16727,11 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
+          <t>JUGGERNAUT LLC</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13789,6 +16754,11 @@
       </c>
       <c r="F583" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13811,6 +16781,11 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13838,6 +16813,11 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
+          <t>BROOKINGS INSTITUTION</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13865,6 +16845,11 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
+          <t>DUKE UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13887,6 +16872,11 @@
       </c>
       <c r="F587" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13909,6 +16899,11 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
+          <t>GOOD FOOD INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13931,6 +16926,11 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
+          <t>OFFICE OF THE SPEAKER MAINE STATE LEGISLATURE</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13953,6 +16953,11 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
+          <t>FOODCORPS</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13975,6 +16980,11 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
+          <t>UNIVERSITY OF ILLINOIS</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -13997,6 +17007,11 @@
       </c>
       <c r="F592" t="inlineStr">
         <is>
+          <t>UFW FOUNDATION</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14019,6 +17034,11 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
+          <t>ARIZONA STATE UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14041,6 +17061,11 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
+          <t>SOUTHERN APPALACHIAN WILDERNESS STEWARDS</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14063,6 +17088,11 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
+          <t>UNITED FOOD AND COMMERCIAL WORKERS INTERNATIONAL UNION</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14085,6 +17115,11 @@
       </c>
       <c r="F596" t="inlineStr">
         <is>
+          <t>BIDEN FOR PRESIDENT</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
@@ -14107,6 +17142,11 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
+          <t>NATIONAL RESOURCES DEFENSE COUNCIL INC</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14129,6 +17169,11 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
+          <t>BANDERA ELECTRIC COOPERATIVE INC</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14151,6 +17196,16 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
+          <t>UNITED STATES DEPARTMENT OF AGRICULTURE</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>(RETIRED)</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14173,6 +17228,11 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
+          <t>STATE OF NEW YORK</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14195,6 +17255,11 @@
       </c>
       <c r="F601" t="inlineStr">
         <is>
+          <t>BARKER PITELKA PLLC</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14217,6 +17282,11 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
+          <t>LOS ANGELES (CITY/COUNTY)</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14239,6 +17309,11 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14261,6 +17336,11 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
+          <t>US SENATE COMMITTEE ON AGRICULTURE NUTRITION AND FORESTRY</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14283,6 +17363,11 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
+          <t>MONETA GROUP</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14310,6 +17395,11 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
+          <t>PEN AMERICA</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14337,6 +17427,11 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
+          <t>CHAN ZUCKERBERG INITIATIVE</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14364,6 +17459,11 @@
       </c>
       <c r="F608" t="inlineStr">
         <is>
+          <t>GIVEDIRECTLY</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14386,6 +17486,11 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
+          <t>UNITED NATIONS FOUNDATION</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14413,6 +17518,11 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
+          <t>CARE</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14435,6 +17545,11 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
+          <t>GEORGETOWN UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14457,6 +17572,11 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
+          <t>TRUEPIC INC</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14479,6 +17599,11 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
+          <t>WORLD RESOURCES INSTITUTE</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14501,6 +17626,11 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
+          <t>OPEN SOCIETY FOUNDATIONS</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14523,6 +17653,11 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
+          <t>INTERNATIONAL RESCUE COMMITTEE</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14545,6 +17680,11 @@
       </c>
       <c r="F616" t="inlineStr">
         <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14572,6 +17712,11 @@
       </c>
       <c r="F617" t="inlineStr">
         <is>
+          <t>UNITED STATES POSTAL SERVICE</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14599,6 +17744,11 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
+          <t>NEW YORK UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14621,6 +17771,11 @@
       </c>
       <c r="F619" t="inlineStr">
         <is>
+          <t>CAREJOURNEY</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
           <t>Volunteer</t>
         </is>
       </c>
@@ -14642,6 +17797,11 @@
         </is>
       </c>
       <c r="F620" t="inlineStr">
+        <is>
+          <t>NATIONAL ASSOCIATION OF LETTER CARRIERS</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
         <is>
           <t>Volunteer</t>
         </is>

--- a/output/agencyreviewteams.xlsx
+++ b/output/agencyreviewteams.xlsx
@@ -820,7 +820,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>JUSTICE CATALYST LAW INC</t>
+          <t>JUSTICE CATALYST LAW</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>LATHAM &amp; WATKINS LLP</t>
+          <t>LATHAM &amp; WATKINS</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CLARK GROUP LLC</t>
+          <t>CLARK GROUP</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CLIFFORD CHANCE US LLP</t>
+          <t>CLIFFORD CHANCE US</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>WILEY REIN LLP</t>
+          <t>WILEY REIN</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CNKINDER INC</t>
+          <t>CNKINDER</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>GLOBAL COUNSEL LLC</t>
+          <t>GLOBAL COUNSEL</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>VISA INC</t>
+          <t>VISA</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>MANATT PHELPS AND PHILLIPS LLP</t>
+          <t>MANATT PHELPS AND PHILLIPS</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>OTHERSIDE CONSULTING LLC</t>
+          <t>OTHERSIDE CONSULTING</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>IMBUE GROUP INC</t>
+          <t>IMBUE GROUP</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -2535,7 +2535,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>CACI INTERNATIONAL INC</t>
+          <t>CACI INTERNATIONAL</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CLOUDFLARE INC</t>
+          <t>CLOUDFLARE</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>SENSHI AME ADVISORS LLC</t>
+          <t>SENSHI AME ADVISORS</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>INSTITUTE OF ELECTRONIC AND ELECTRICAL ENGINEERS INC</t>
+          <t>INSTITUTE OF ELECTRONIC AND ELECTRICAL ENGINEERS</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>TEACH PLUS INC</t>
+          <t>TEACH PLUS</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>RABEN GROUP LLC</t>
+          <t>RABEN GROUP</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>HIGH WATER MARK LLC</t>
+          <t>HIGH WATER MARK</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>BFPCC INC</t>
+          <t>BFPCC</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>MANATT PHELPS AND PHILLIPS LLP</t>
+          <t>MANATT PHELPS AND PHILLIPS</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>BOIES SCHILLER FLEXNER LLP</t>
+          <t>BOIES SCHILLER FLEXNER</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>HOGAN LOVELLS LLP</t>
+          <t>HOGAN LOVELLS</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>INSTITUTES FOR BEHAVIOR RESOURCES INC</t>
+          <t>INSTITUTES FOR BEHAVIOR RESOURCES</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>GUIDEHOUSE INC</t>
+          <t>GUIDEHOUSE</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -5298,7 +5298,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>MANATT PHELPS AND PHILLIPS LLP</t>
+          <t>MANATT PHELPS AND PHILLIPS</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>TOFFLER ASSOCIATES INC</t>
+          <t>TOFFLER ASSOCIATES</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>ONE CONCERN INC</t>
+          <t>ONE CONCERN</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>SHEPPARD MULLIN RICHTER &amp; HAMPTON LLP</t>
+          <t>SHEPPARD MULLIN RICHTER &amp; HAMPTON</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>LEVY GROUP INC</t>
+          <t>LEVY GROUP</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>CROWELL &amp; MORING LLP</t>
+          <t>CROWELL &amp; MORING</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -6008,7 +6008,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>PAUL HASTINGS LLP</t>
+          <t>PAUL HASTINGS</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>ADVOCACY BLUEPRINTS LLC</t>
+          <t>ADVOCACY BLUEPRINTS</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -6762,7 +6762,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>HARRIS WILTSHIRE AND GRANNIS LLP</t>
+          <t>HARRIS WILTSHIRE AND GRANNIS</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>LINKLATERS LLP</t>
+          <t>LINKLATERS</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>LATHAM &amp; WATKINS LLP</t>
+          <t>LATHAM &amp; WATKINS</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -6870,7 +6870,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>ARNOLD VENTURES LLC</t>
+          <t>ARNOLD VENTURES</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -6924,7 +6924,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>WILMERHALE LLC</t>
+          <t>WILMERHALE</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>MAYER BROWN LLP</t>
+          <t>MAYER BROWN</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>MORGAN LEWIS &amp; BOCKIUS LLP</t>
+          <t>MORGAN LEWIS &amp; BOCKIUS</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>COOLEY LLP</t>
+          <t>COOLEY</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>DAVIS POLK &amp; WARDWELL LLP</t>
+          <t>DAVIS POLK &amp; WARDWELL</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>HUNTON ANDREWS KURTH LLP</t>
+          <t>HUNTON ANDREWS KURTH</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>JOBS FOR THE FUTURE INC</t>
+          <t>JOBS FOR THE FUTURE</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -8834,7 +8834,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>HWC INC</t>
+          <t>HWC</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -9119,7 +9119,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>FACEBOOK INC</t>
+          <t>FACEBOOK</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -9620,7 +9620,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>SKADDEN ARPS SLATE MEAGHER &amp; FLOM LLP</t>
+          <t>SKADDEN ARPS SLATE MEAGHER &amp; FLOM</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -9733,7 +9733,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>INTERNATIONAL CAPITAL STRATEGIES LLC</t>
+          <t>INTERNATIONAL CAPITAL STRATEGIES</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>BRIGHTSIDE BENEFIT INC</t>
+          <t>BRIGHTSIDE BENEFIT</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
@@ -10266,7 +10266,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>ARNOLD &amp; PORTER KAYE SCHOLER LLP</t>
+          <t>ARNOLD &amp; PORTER KAYE SCHOLER</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
@@ -10907,7 +10907,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>ATLAS RESEARCH LLC</t>
+          <t>ATLAS RESEARCH</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
@@ -11204,7 +11204,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>WORKMERK LLC</t>
+          <t>WORKMERK</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>LATHAM &amp; WATKINS LLP</t>
+          <t>LATHAM &amp; WATKINS</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
@@ -11425,7 +11425,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>GRIST MAGAZINE INC</t>
+          <t>GRIST MAGAZINE</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
@@ -11877,7 +11877,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>DLA PIPER LLP</t>
+          <t>DLA PIPER</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
@@ -12194,7 +12194,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>BETTER MARKETS INC</t>
+          <t>BETTER MARKETS</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
@@ -12334,7 +12334,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>ORRICK HERRINGTON &amp; SUTCLIFFE LLP</t>
+          <t>ORRICK HERRINGTON &amp; SUTCLIFFE</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>ELEVATE LLC</t>
+          <t>ELEVATE</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
@@ -12592,7 +12592,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>CLIO STRATEGIES LLC</t>
+          <t>CLIO STRATEGIES</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
@@ -12958,7 +12958,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>FACEBOOK INC</t>
+          <t>FACEBOOK</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
@@ -12985,7 +12985,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>MORRISON &amp; FOERSTER LLC</t>
+          <t>MORRISON &amp; FOERSTER</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
@@ -13265,7 +13265,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>VELEZ SECURITY SOLUTIONS LLC</t>
+          <t>VELEZ SECURITY SOLUTIONS</t>
         </is>
       </c>
       <c r="H461" t="inlineStr">
@@ -13464,7 +13464,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>WHITE &amp; CASE LLP</t>
+          <t>WHITE &amp; CASE</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
@@ -13550,7 +13550,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>SUMS 15 HOLDINGS LLC</t>
+          <t>SUMS 15 HOLDINGS</t>
         </is>
       </c>
       <c r="H471" t="inlineStr">
@@ -13835,7 +13835,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>FACEBOOK INC</t>
+          <t>FACEBOOK</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
@@ -14233,7 +14233,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>SIDLEY AUSTIN LLP</t>
+          <t>SIDLEY AUSTIN</t>
         </is>
       </c>
       <c r="H495" t="inlineStr">
@@ -14260,7 +14260,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>AIRBNB INC</t>
+          <t>AIRBNB</t>
         </is>
       </c>
       <c r="H496" t="inlineStr">
@@ -14459,7 +14459,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>SEQUOIA CAPITAL OPERATIONS LLC</t>
+          <t>SEQUOIA CAPITAL OPERATIONS</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
@@ -14668,7 +14668,7 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>LYFT INC</t>
+          <t>LYFT</t>
         </is>
       </c>
       <c r="H510" t="inlineStr">
@@ -14754,7 +14754,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>AIRBNB INC</t>
+          <t>AIRBNB</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
@@ -14781,7 +14781,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>MEOW WOLF INC</t>
+          <t>MEOW WOLF</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
@@ -15044,7 +15044,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>LEVY GROUP INC</t>
+          <t>LEVY GROUP</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
@@ -15319,7 +15319,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>COVINGTON &amp; BURLING LLP</t>
+          <t>COVINGTON &amp; BURLING</t>
         </is>
       </c>
       <c r="H533" t="inlineStr">
@@ -15936,7 +15936,7 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>VISA INC</t>
+          <t>VISA</t>
         </is>
       </c>
       <c r="H554" t="inlineStr">
@@ -16221,7 +16221,7 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>FUTURE PARTNERS LLC</t>
+          <t>FUTURE PARTNERS</t>
         </is>
       </c>
       <c r="H564" t="inlineStr">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>FACEBOOK INC</t>
+          <t>FACEBOOK</t>
         </is>
       </c>
       <c r="H573" t="inlineStr">
@@ -16727,7 +16727,7 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>JUGGERNAUT LLC</t>
+          <t>JUGGERNAUT</t>
         </is>
       </c>
       <c r="H582" t="inlineStr">
@@ -17142,7 +17142,7 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>NATIONAL RESOURCES DEFENSE COUNCIL INC</t>
+          <t>NATIONAL RESOURCES DEFENSE COUNCIL</t>
         </is>
       </c>
       <c r="H597" t="inlineStr">
@@ -17169,7 +17169,7 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>BANDERA ELECTRIC COOPERATIVE INC</t>
+          <t>BANDERA ELECTRIC COOPERATIVE</t>
         </is>
       </c>
       <c r="H598" t="inlineStr">
@@ -17572,7 +17572,7 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>TRUEPIC INC</t>
+          <t>TRUEPIC</t>
         </is>
       </c>
       <c r="H612" t="inlineStr">

--- a/output/agencyreviewteams.xlsx
+++ b/output/agencyreviewteams.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H645"/>
+  <dimension ref="A1:H649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3083,17 +3083,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>United States Senate, Office of  Senator Robert P. Casey, Jr. (Retired)</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>SENATOR ROBERT P CASEY JR</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>(RETIRED)</t>
+          <t>United States Senate, Office of Senator Robert P. Casey, Jr. (Retired)</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -7504,12 +7494,12 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Biden for President</t>
+          <t>Democratic National Committee</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>BIDEN FOR PRESIDENT</t>
+          <t>DEMOCRATIC NATIONAL COMMITTEE</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -7634,12 +7624,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Gina Kline</t>
+          <t>Regina “Gina” Kline</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Brown, Goldstein &amp; Levy, LLP</t>
+          <t>Smartjob LLC</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -9647,27 +9637,17 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Department of the Interior</t>
+          <t>Department of State</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Kevin Washburn</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Uzra Zeya</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>University of Iowa</t>
-        </is>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>UNIVERSITY OF IOWA</t>
+          <t>Alliance for Peacebuilding</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -9684,17 +9664,22 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Bob Anderson</t>
+          <t>Kevin Washburn</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Harvard Law School</t>
+          <t>University of Iowa</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>HARVARD UNIVERSITY</t>
+          <t>UNIVERSITY OF IOWA</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -9711,17 +9696,17 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Bret Birdsong</t>
+          <t>Bob Anderson</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>University of Nevada, Las Vegas, Boyd School of Law</t>
+          <t>Harvard Law School</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>UNIVERSITY OF NEVADA</t>
+          <t>HARVARD UNIVERSITY</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
@@ -9738,17 +9723,17 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Shannon Estenoz</t>
+          <t>Bret Birdsong</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>The Everglades Foundation</t>
+          <t>University of Nevada, Las Vegas, Boyd School of Law</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>EVERGLADES FOUNDATION</t>
+          <t>UNIVERSITY OF NEVADA</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
@@ -9765,17 +9750,17 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Chris Goranson</t>
+          <t>Shannon Estenoz</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Carnegie Mellon University, The Heinz College of Information Systems and Public Policy</t>
+          <t>The Everglades Foundation</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>CARNEGIE MELLON UNIVERSITY</t>
+          <t>EVERGLADES FOUNDATION</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -9792,17 +9777,17 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Janie Hipp</t>
+          <t>Chris Goranson</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Native American Agriculture Fund</t>
+          <t>Carnegie Mellon University, The Heinz College of Information Systems and Public Policy</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>NATIVE AMERICAN AGRICULTURE FUND</t>
+          <t>CARNEGIE MELLON UNIVERSITY</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -9819,17 +9804,17 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Kate Kelly</t>
+          <t>Janie Hipp</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Center for American Progress</t>
+          <t>Native American Agriculture Fund</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>CENTER FOR AMERICAN PROGRESS</t>
+          <t>NATIVE AMERICAN AGRICULTURE FUND</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
@@ -9846,17 +9831,17 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Elizabeth Klein</t>
+          <t>Kate Kelly</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>New York University, School of Law, State Energy &amp; Environmental Impact Center</t>
+          <t>Center for American Progress</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>NEW YORK UNIVERSITY</t>
+          <t>CENTER FOR AMERICAN PROGRESS</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
@@ -9873,17 +9858,17 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Amanda Leiter</t>
+          <t>Elizabeth Klein</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>American University, Washington College of Law</t>
+          <t>New York University, School of Law, State Energy &amp; Environmental Impact Center</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>AMERICAN UNIVERSITY WASHINGTON COLLEGE OF LAW</t>
+          <t>NEW YORK UNIVERSITY</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
@@ -9900,17 +9885,17 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Molly McUsic</t>
+          <t>Amanda Leiter</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Wyss Foundation</t>
+          <t>American University, Washington College of Law</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>WYSS FOUNDATION</t>
+          <t>AMERICAN UNIVERSITY WASHINGTON COLLEGE OF LAW</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
@@ -9927,22 +9912,22 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Clara Pratte</t>
+          <t>Molly McUsic</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Strongbow Strategies</t>
+          <t>Wyss Foundation</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>STRONGBOW STRATEGIES</t>
+          <t>WYSS FOUNDATION</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
@@ -9954,22 +9939,22 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Maggie Thomas</t>
+          <t>Clara Pratte</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Evergreen Action</t>
+          <t>Strongbow Strategies</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>EVERGREEN ACTION</t>
+          <t>STRONGBOW STRATEGIES</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
@@ -9981,17 +9966,17 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Tanya Trujillo</t>
+          <t>Maggie Thomas</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Colorado River Sustainability Campaign</t>
+          <t>Evergreen Action</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>COLORADO RIVER SUSTAINABILITY CAMPAIGN</t>
+          <t>EVERGREEN ACTION</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
@@ -10003,32 +9988,27 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Department of the Treasury</t>
+          <t>Department of the Interior</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Don Graves</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Tanya Trujillo</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>KeyBank</t>
+          <t>Colorado River Sustainability Campaign</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>KEYBANK</t>
+          <t>COLORADO RIVER SUSTAINABILITY CAMPAIGN</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
@@ -10040,27 +10020,27 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Mehrsa Baradaran</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
+          <t>Don Graves</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>University of California, Irvine School of Law</t>
+          <t>KeyBank</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>UNIVERSITY OF CALIFORNIA</t>
+          <t>KEYBANK</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
@@ -10072,17 +10052,22 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Michael Barr</t>
+          <t>Mehrsa Baradaran</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>University of Michigan, Gerald R. Ford School of Public Policy</t>
+          <t>University of California, Irvine School of Law</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>UNIVERSITY OF MICHIGAN</t>
+          <t>UNIVERSITY OF CALIFORNIA</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
@@ -10099,17 +10084,17 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Lily Batchelder</t>
+          <t>Michael Barr</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>New York University, School of Law</t>
+          <t>University of Michigan, Gerald R. Ford School of Public Policy</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>NEW YORK UNIVERSITY</t>
+          <t>UNIVERSITY OF MICHIGAN</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
@@ -10126,17 +10111,17 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>John Bentivoglio</t>
+          <t>Lily Batchelder</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Skadden, Arps, Slate, Meagher &amp; Flom LLP</t>
+          <t>New York University, School of Law</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>SKADDEN ARPS SLATE MEAGHER &amp; FLOM</t>
+          <t>NEW YORK UNIVERSITY</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
@@ -10153,17 +10138,17 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Rakim Brooks</t>
+          <t>John Bentivoglio</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>American Civil Liberties Union</t>
+          <t>Skadden, Arps, Slate, Meagher &amp; Flom LLP</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>AMERICAN CIVIL LIBERTIES UNION</t>
+          <t>SKADDEN ARPS SLATE MEAGHER &amp; FLOM</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
@@ -10180,17 +10165,17 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Chris Brummer</t>
+          <t>Rakim Brooks</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Georgetown University</t>
+          <t>American Civil Liberties Union</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>GEORGETOWN UNIVERSITY</t>
+          <t>AMERICAN CIVIL LIBERTIES UNION</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
@@ -10207,22 +10192,17 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Liyan David Chang</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Chris Brummer</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Devoted Health</t>
+          <t>Georgetown University</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>DEVOTED HEALTH</t>
+          <t>GEORGETOWN UNIVERSITY</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
@@ -10239,17 +10219,22 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Heidi Crebo-Rediker</t>
+          <t>Liyan David Chang</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>International Capital Strategies, LLC</t>
+          <t>Devoted Health</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>INTERNATIONAL CAPITAL STRATEGIES</t>
+          <t>DEVOTED HEALTH</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
@@ -10266,17 +10251,17 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Will Fields</t>
+          <t>Heidi Crebo-Rediker</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Sidewalk Labs</t>
+          <t>International Capital Strategies, LLC</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>SIDEWALK LABS</t>
+          <t>INTERNATIONAL CAPITAL STRATEGIES</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
@@ -10293,17 +10278,17 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Suzanna Fritzberg</t>
+          <t>Will Fields</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Birmingham Strong</t>
+          <t>Sidewalk Labs</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>BIRMINGHAM STRONG</t>
+          <t>SIDEWALK LABS</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
@@ -10320,22 +10305,17 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Andy Green</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Suzanna Fritzberg</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Center for American Progress</t>
+          <t>Birmingham Strong</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>CENTER FOR AMERICAN PROGRESS</t>
+          <t>BIRMINGHAM STRONG</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
@@ -10352,17 +10332,22 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Nicole Isaac</t>
+          <t>Andy Green</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>LinkedIn Corporation</t>
+          <t>Center for American Progress</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>LINKEDIN CORPORATION</t>
+          <t>CENTER FOR AMERICAN PROGRESS</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
@@ -10379,22 +10364,17 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Simon Johnson</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Nicole Isaac</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Massachusetts Institute of Technology</t>
+          <t>LinkedIn Corporation</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>MASSACHUSETTS INSTITUTE OF TECHNOLOGY</t>
+          <t>LINKEDIN CORPORATION</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
@@ -10411,17 +10391,22 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Helen Kanovsky</t>
+          <t>Simon Johnson</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Mortgage Bankers Association</t>
+          <t>Massachusetts Institute of Technology</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>MORTGAGE BANKERS ASSOCIATION</t>
+          <t>MASSACHUSETTS INSTITUTE OF TECHNOLOGY</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
@@ -10438,17 +10423,17 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Marisa Lago</t>
+          <t>Helen Kanovsky</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>New York City, Department of City Planning</t>
+          <t>Mortgage Bankers Association</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>NEW YORK CITY</t>
+          <t>MORTGAGE BANKERS ASSOCIATION</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
@@ -10465,17 +10450,17 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Nancy Lee</t>
+          <t>Marisa Lago</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Center for Global Development</t>
+          <t>New York City, Department of City Planning</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>CENTER FOR GLOBAL DEVELOPMENT</t>
+          <t>NEW YORK CITY</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
@@ -10492,17 +10477,17 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Sarah Miller</t>
+          <t>Nancy Lee</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>American Economic Liberties Project</t>
+          <t>Center for Global Development</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>AMERICAN ECONOMIC LIBERTIES PROJECT</t>
+          <t>CENTER FOR GLOBAL DEVELOPMENT</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
@@ -10519,17 +10504,17 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Sophie Raseman</t>
+          <t>Sarah Miller</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Brightside Benefit, Inc.</t>
+          <t>American Economic Liberties Project</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>BRIGHTSIDE BENEFIT</t>
+          <t>AMERICAN ECONOMIC LIBERTIES PROJECT</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
@@ -10546,17 +10531,17 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Rosie Rios</t>
+          <t>Sophie Raseman</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Red River Associates</t>
+          <t>Brightside Benefit, Inc.</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>RED RIVER ASSOCIATES</t>
+          <t>BRIGHTSIDE BENEFIT</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
@@ -10573,17 +10558,17 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Buzz Roberts</t>
+          <t>Rosie Rios</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>National Association of Affordable Housing Lenders</t>
+          <t>Red River Associates</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>NATIONAL ASSOCIATION OF AFFORDABLE HOUSING LENDERS</t>
+          <t>RED RIVER ASSOCIATES</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
@@ -10600,27 +10585,22 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Jason Rodriguez</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Buzz Roberts</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Biden for President</t>
+          <t>National Association of Affordable Housing Lenders</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>BIDEN FOR PRESIDENT</t>
+          <t>NATIONAL ASSOCIATION OF AFFORDABLE HOUSING LENDERS</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
@@ -10632,22 +10612,27 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Elizabeth Rosenberg</t>
+          <t>Jason Rodriguez</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Center for a New American Security</t>
+          <t>Biden for President</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>CENTER FOR A NEW AMERICAN SECURITY</t>
+          <t>BIDEN FOR PRESIDENT</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
@@ -10659,17 +10644,17 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Javier Saade</t>
+          <t>Elizabeth Rosenberg</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Impact Master Holdings</t>
+          <t>Center for a New American Security</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>IMPACT MASTER HOLDINGS</t>
+          <t>CENTER FOR A NEW AMERICAN SECURITY</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
@@ -10686,22 +10671,17 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Damon Silvers</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Javier Saade</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>AFL-CIO</t>
+          <t>Impact Master Holdings</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>AFL-CIO</t>
+          <t>IMPACT MASTER HOLDINGS</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
@@ -10718,17 +10698,22 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Betsey Stevenson</t>
+          <t>Damon Silvers</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>University of Michigan</t>
+          <t>AFL-CIO</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>UNIVERSITY OF MICHIGAN</t>
+          <t>AFL-CIO</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
@@ -10745,17 +10730,17 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Jay Williams</t>
+          <t>Betsey Stevenson</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Hartford Foundation for Public Giving</t>
+          <t>University of Michigan</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>HARTFORD FOUNDATION FOR PUBLIC GIVING</t>
+          <t>UNIVERSITY OF MICHIGAN</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
@@ -10772,17 +10757,17 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Charles Yi</t>
+          <t>Jay Williams</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Arnold &amp; Porter Kaye Scholer, LLP</t>
+          <t>Hartford Foundation for Public Giving</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>ARNOLD &amp; PORTER KAYE SCHOLER</t>
+          <t>HARTFORD FOUNDATION FOR PUBLIC GIVING</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
@@ -10799,22 +10784,17 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Jeff Zuttah</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Charles Yi</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Oscar Health</t>
+          <t>Arnold &amp; Porter Kaye Scholer, LLP</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>OSCAR HEALTH</t>
+          <t>ARNOLD &amp; PORTER KAYE SCHOLER</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
@@ -10826,27 +10806,27 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Department of Transportation</t>
+          <t>Department of the Treasury</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Phillip Washington</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr">
+          <t>Jeff Zuttah</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Los Angeles County Metropolitan Transportation Authority</t>
+          <t>Oscar Health</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>LOS ANGELES (CITY/COUNTY)</t>
+          <t>OSCAR HEALTH</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
@@ -10863,17 +10843,22 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Dave Barnett</t>
+          <t>Phillip Washington</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>United Association of Plumbers and Pipefitters of the US and Canada</t>
+          <t>Los Angeles County Metropolitan Transportation Authority</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>UNITED ASSOCIATION</t>
+          <t>LOS ANGELES (CITY/COUNTY)</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
@@ -10890,17 +10875,17 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Austin Brown</t>
+          <t>Dave Barnett</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>University of California, Davis</t>
+          <t>United Association of Plumbers and Pipefitters of the US and Canada</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>UNIVERSITY OF CALIFORNIA</t>
+          <t>UNITED ASSOCIATION</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
@@ -10917,17 +10902,17 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>David Cameron</t>
+          <t>Austin Brown</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>International Brotherhood of Teamsters</t>
+          <t>University of California, Davis</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>INTERNATIONAL BROTHERHOOD OF TEAMSTERS</t>
+          <t>UNIVERSITY OF CALIFORNIA</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
@@ -10944,17 +10929,17 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Florence Chen</t>
+          <t>David Cameron</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Generate</t>
+          <t>International Brotherhood of Teamsters</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>GENERATE</t>
+          <t>INTERNATIONAL BROTHERHOOD OF TEAMSTERS</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
@@ -10971,17 +10956,17 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Brendan Danaher</t>
+          <t>Florence Chen</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>Transport Workers Union of America, AFL-CIO</t>
+          <t>Generate</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>TRANSPORT WORKERS UNION OF AMERICA AFL-CIO</t>
+          <t>GENERATE</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
@@ -10998,22 +10983,22 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Reginald Greer</t>
+          <t>Brendan Danaher</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Biden for President</t>
+          <t>Transport Workers Union of America, AFL-CIO</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>BIDEN FOR PRESIDENT</t>
+          <t>TRANSPORT WORKERS UNION OF AMERICA AFL-CIO</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
@@ -11025,22 +11010,22 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Paul Kincaid</t>
+          <t>Reginald Greer</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>The Association of Former Members of Congress</t>
+          <t>Biden for President</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>ASSOCIATION OF FORMER MEMBERS OF CONGRESS</t>
+          <t>BIDEN FOR PRESIDENT</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
@@ -11052,17 +11037,17 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Gabe Klein</t>
+          <t>Paul Kincaid</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Cityfi</t>
+          <t>The Association of Former Members of Congress</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>CITYFI</t>
+          <t>ASSOCIATION OF FORMER MEMBERS OF CONGRESS</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
@@ -11079,22 +11064,22 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Lucinda Lessley</t>
+          <t>Gabe Klein</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>U.S. House of Representatives, Committee on Homeland Security</t>
+          <t>Cityfi</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>US HOUSE OF REPRESENTATIVES</t>
+          <t>CITYFI</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Transition — Appropriation</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
@@ -11106,22 +11091,22 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Jeff Marootian</t>
+          <t>Lucinda Lessley</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>District Department of Transportation</t>
+          <t>U.S. House of Representatives, Committee on Homeland Security</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>DISTRICT OF COLUMBIA</t>
+          <t>US HOUSE OF REPRESENTATIVES</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — Appropriation</t>
         </is>
       </c>
     </row>
@@ -11133,17 +11118,17 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Therese McMillan</t>
+          <t>Jeff Marootian</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Metropolitan Transportation Commission</t>
+          <t>District Department of Transportation</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>METROPOLITAN TRANSPORTATION COMMISSION</t>
+          <t>DISTRICT OF COLUMBIA</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
@@ -11160,17 +11145,17 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Brad Mims</t>
+          <t>Therese McMillan</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Conference of Minority Transportation Officials</t>
+          <t>Metropolitan Transportation Commission</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>CONFERENCE OF MINORITY TRANSPORTATION OFFICIALS</t>
+          <t>METROPOLITAN TRANSPORTATION COMMISSION</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
@@ -11187,17 +11172,17 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Robert Molofsky</t>
+          <t>Brad Mims</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Amalgamated Transit Union</t>
+          <t>Conference of Minority Transportation Officials</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>AMALGAMATED TRANSIT UNION</t>
+          <t>CONFERENCE OF MINORITY TRANSPORTATION OFFICIALS</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
@@ -11214,17 +11199,17 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Patty Monahan</t>
+          <t>Robert Molofsky</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>California Energy Commission</t>
+          <t>Amalgamated Transit Union</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>STATE OF CALIFORNIA</t>
+          <t>AMALGAMATED TRANSIT UNION</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
@@ -11241,12 +11226,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Toks Omishakin</t>
+          <t>Patty Monahan</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>California Department of Transportation</t>
+          <t>California Energy Commission</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -11268,17 +11253,17 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Mario Rodriguez</t>
+          <t>Toks Omishakin</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Indianapolis Airport Authority</t>
+          <t>California Department of Transportation</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>INDIANAPOLIS AIRPORT AUTHORITY</t>
+          <t>STATE OF CALIFORNIA</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
@@ -11295,22 +11280,17 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Mike Rodriguez</t>
+          <t>Mario Rodriguez</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Texas A&amp;M University System (Retired)</t>
+          <t>Indianapolis Airport Authority</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>TEXAS A&amp;M UNIVERSITY</t>
-        </is>
-      </c>
-      <c r="G391" t="inlineStr">
-        <is>
-          <t>(RETIRED)</t>
+          <t>INDIANAPOLIS AIRPORT AUTHORITY</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
@@ -11327,17 +11307,22 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Nairi Tashjian Hourdajian</t>
+          <t>Mike Rodriguez</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Figma</t>
+          <t>Texas A&amp;M University System (Retired)</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>FIGMA</t>
+          <t>TEXAS A&amp;M UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>(RETIRED)</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
@@ -11354,17 +11339,17 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Polly Trottenberg</t>
+          <t>Nairi Tashjian Hourdajian</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>New York City, Department of Transportation</t>
+          <t>Figma</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>NEW YORK CITY</t>
+          <t>FIGMA</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
@@ -11381,17 +11366,17 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Vinn White</t>
+          <t>Polly Trottenberg</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>State of New Jersey</t>
+          <t>New York City, Department of Transportation</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>STATE OF NEW JERSEY</t>
+          <t>NEW YORK CITY</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
@@ -11403,27 +11388,22 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Department of Veterans Affairs</t>
+          <t>Department of Transportation</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Meg Kabat</t>
-        </is>
-      </c>
-      <c r="C395" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Vinn White</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Atlas Research, LLC</t>
+          <t>State of New Jersey</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>ATLAS RESEARCH</t>
+          <t>STATE OF NEW JERSEY</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
@@ -11440,17 +11420,22 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Phillip Carter</t>
+          <t>Meg Kabat</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Tableau Software</t>
+          <t>Atlas Research, LLC</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>TABLEAU SOFTWARE</t>
+          <t>ATLAS RESEARCH</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
@@ -11467,17 +11452,17 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Chris Diaz</t>
+          <t>Phillip Carter</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Tableau Software</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>TABLEAU SOFTWARE</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
@@ -11494,7 +11479,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Maryanne Donaghy</t>
+          <t>Chris Diaz</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -11521,17 +11506,17 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Shereef Elnahal</t>
+          <t>Maryanne Donaghy</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>University Hospital Newark, NJ</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>UNIVERSITY HOSPITAL NEWARK NJ</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
@@ -11548,17 +11533,17 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Mirah Horowitz</t>
+          <t>Shereef Elnahal</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Lucky Dog Animal Rescue</t>
+          <t>University Hospital Newark, NJ</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>LUCKY DOG ANIMAL RESCUE</t>
+          <t>UNIVERSITY HOSPITAL NEWARK NJ</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
@@ -11575,17 +11560,17 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Andrea Ippolito</t>
+          <t>Mirah Horowitz</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>SimpliFed</t>
+          <t>Lucky Dog Animal Rescue</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>SIMPLIFED</t>
+          <t>LUCKY DOG ANIMAL RESCUE</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
@@ -11602,17 +11587,17 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Josh Jacobs</t>
+          <t>Andrea Ippolito</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Booz Allen Hamilton</t>
+          <t>SimpliFed</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>BOOZ ALLEN HAMILTON</t>
+          <t>SIMPLIFED</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
@@ -11629,22 +11614,22 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Carrie Kagawa</t>
+          <t>Josh Jacobs</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Truman Center for National Policy and Truman National Security Project</t>
+          <t>Booz Allen Hamilton</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>TRUMAN CENTER FOR NATIONAL POLICY AND TRUMAN NATIONAL SECURITY PROJECT</t>
+          <t>BOOZ ALLEN HAMILTON</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
@@ -11656,22 +11641,22 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Jerry SH Lee</t>
+          <t>Carrie Kagawa</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Ellison Institute, University of Southern California</t>
+          <t>Truman Center for National Policy and Truman National Security Project</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>ELLISON INSTITUTE UNIVERSITY OF SOUTHERN CALIFORNIA</t>
+          <t>TRUMAN CENTER FOR NATIONAL POLICY AND TRUMAN NATIONAL SECURITY PROJECT</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
@@ -11683,17 +11668,17 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Heidi Marston</t>
+          <t>Jerry SH Lee</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Los Angeles Homeless Services Authority</t>
+          <t>Ellison Institute, University of Southern California</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>LOS ANGELES (CITY/COUNTY)</t>
+          <t>ELLISON INSTITUTE UNIVERSITY OF SOUTHERN CALIFORNIA</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
@@ -11710,17 +11695,17 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Steven Parker</t>
+          <t>Heidi Marston</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>WorkMerk, LLC</t>
+          <t>Los Angeles Homeless Services Authority</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>WORKMERK</t>
+          <t>LOS ANGELES (CITY/COUNTY)</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
@@ -11737,17 +11722,17 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Latriece Prince-Wheeler</t>
+          <t>Steven Parker</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Ascension</t>
+          <t>WorkMerk, LLC</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>ASCENSION</t>
+          <t>WORKMERK</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
@@ -11764,17 +11749,17 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Kayla Williams</t>
+          <t>Latriece Prince-Wheeler</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Center for a New American Security</t>
+          <t>Ascension</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>CENTER FOR A NEW AMERICAN SECURITY</t>
+          <t>ASCENSION</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
@@ -11791,17 +11776,17 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Baligh Yehia</t>
+          <t>Kayla Williams</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Ascension</t>
+          <t>Center for a New American Security</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>ASCENSION</t>
+          <t>CENTER FOR A NEW AMERICAN SECURITY</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
@@ -11813,27 +11798,22 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Environmental Protection Agency</t>
+          <t>Department of Veterans Affairs</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Patrice Simms</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Baligh Yehia</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Earthjustice</t>
+          <t>Ascension</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>EARTHJUSTICE</t>
+          <t>ASCENSION</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
@@ -11850,17 +11830,22 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Amanda Aguirre</t>
+          <t>Patrice Simms</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Blue Crab Strategies</t>
+          <t>Earthjustice</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>BLUE CRAB STRATEGIES</t>
+          <t>EARTHJUSTICE</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
@@ -11877,17 +11862,17 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ann Dunkin</t>
+          <t>Amanda Aguirre</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Dell Technologies</t>
+          <t>Blue Crab Strategies</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>DELL TECHNOLOGIES</t>
+          <t>BLUE CRAB STRATEGIES</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
@@ -11904,17 +11889,17 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Matt Fritz</t>
+          <t>Ann Dunkin</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Latham &amp; Watkins, LLP</t>
+          <t>Dell Technologies</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>LATHAM &amp; WATKINS</t>
+          <t>DELL TECHNOLOGIES</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
@@ -11931,17 +11916,17 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Lisa Garcia</t>
+          <t>Matt Fritz</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Grist Magazine, Inc.</t>
+          <t>Latham &amp; Watkins, LLP</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>GRIST MAGAZINE</t>
+          <t>LATHAM &amp; WATKINS</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
@@ -11958,17 +11943,17 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Cynthia Giles</t>
+          <t>Lisa Garcia</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Harvard Environmental and Energy Law Program</t>
+          <t>Grist Magazine, Inc.</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>HARVARD UNIVERSITY</t>
+          <t>GRIST MAGAZINE</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
@@ -11985,12 +11970,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Joseph Goffman</t>
+          <t>Cynthia Giles</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Harvard Law School</t>
+          <t>Harvard Environmental and Energy Law Program</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -12012,17 +11997,17 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Ken Kopocis</t>
+          <t>Joseph Goffman</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>American University, Washington College of Law</t>
+          <t>Harvard Law School</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>AMERICAN UNIVERSITY WASHINGTON COLLEGE OF LAW</t>
+          <t>HARVARD UNIVERSITY</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
@@ -12039,17 +12024,17 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Michael McCabe</t>
+          <t>Ken Kopocis</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>American University, Washington College of Law</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>AMERICAN UNIVERSITY WASHINGTON COLLEGE OF LAW</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
@@ -12066,22 +12051,22 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Billie McGrane</t>
+          <t>Michael McCabe</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>PA Democratic Party</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>PA DEMOCRATIC PARTY</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
@@ -12093,22 +12078,22 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Alejandra Nunez</t>
+          <t>Billie McGrane</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>The Sierra Club</t>
+          <t>PA Democratic Party</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>SIERRA CLUB</t>
+          <t>PA DEMOCRATIC PARTY</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
@@ -12120,17 +12105,17 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Luseni Pieh</t>
+          <t>Alejandra Nunez</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>The Sierra Club</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>SIERRA CLUB</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
@@ -12147,54 +12132,49 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Eric Salcedo</t>
+          <t>Luseni Pieh</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Democratic National Committee — Coordinated Campaign</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>DEMOCRATIC NATIONAL COMMITTEE</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Executive Office of the President, Management and Administration</t>
+          <t>Environmental Protection Agency</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Cynthia Bernstein</t>
-        </is>
-      </c>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Eric Salcedo</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Deloitte Consulting, LLP</t>
+          <t>Democratic National Committee — Coordinated Campaign</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>DELOITTE</t>
+          <t>DEMOCRATIC NATIONAL COMMITTEE</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
@@ -12206,17 +12186,27 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Faisal Amin</t>
+          <t>Cynthia Bernstein</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>U.S. Government Accountability Office</t>
+          <t>Deloitte Consulting, LLP</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>DELOITTE</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
@@ -12228,27 +12218,17 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Rebecca Katz</t>
-        </is>
-      </c>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Faisal Amin</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Georgetown University</t>
-        </is>
-      </c>
-      <c r="F425" t="inlineStr">
-        <is>
-          <t>GEORGETOWN UNIVERSITY</t>
+          <t>U.S. Government Accountability Office</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
@@ -12260,22 +12240,17 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Austin Lin</t>
-        </is>
-      </c>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Anthony Bernal</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Chan Zuckerberg Initiative</t>
+          <t>Biden for President</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>CHAN ZUCKERBERG INITIATIVE</t>
+          <t>BIDEN FOR PRESIDENT</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
@@ -12292,22 +12267,27 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Christian Peele</t>
+          <t>Rebecca Katz</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Georgetown University</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>GEORGETOWN UNIVERSITY</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
@@ -12319,7 +12299,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>David Recordon</t>
+          <t>Austin Lin</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -12334,61 +12319,56 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Federal Communications Commission</t>
+          <t>Executive Office of the President, Management and Administration</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>John Williams</t>
-        </is>
-      </c>
-      <c r="C429" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Christian Peele</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>U.S. House of Representatives, Committee on the Judiciary</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>US HOUSE OF REPRESENTATIVES</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Transition — Appropriation</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Federal Communications Commission</t>
+          <t>Executive Office of the President, Management and Administration</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Mignon Clyburn</t>
+          <t>David Recordon</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Chan Zuckerberg Initiative</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>CHAN ZUCKERBERG INITIATIVE</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
@@ -12405,22 +12385,27 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Smitty Smith</t>
+          <t>John Williams</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>DLA Piper, LLP</t>
+          <t>U.S. House of Representatives, Committee on the Judiciary</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>DLA PIPER</t>
+          <t>US HOUSE OF REPRESENTATIVES</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — Appropriation</t>
         </is>
       </c>
     </row>
@@ -12432,7 +12417,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Paul de Sa</t>
+          <t>Mignon Clyburn</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -12454,27 +12439,22 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Federal Reserve, Banking and Securities Regulators</t>
+          <t>Federal Communications Commission</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Gary Gensler</t>
-        </is>
-      </c>
-      <c r="C433" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Smitty Smith</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Massachusetts Institute of Technology</t>
+          <t>DLA Piper, LLP</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>MASSACHUSETTS INSTITUTE OF TECHNOLOGY</t>
+          <t>DLA PIPER</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
@@ -12486,22 +12466,22 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Federal Reserve, Banking and Securities Regulators</t>
+          <t>Federal Communications Commission</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Reena Aggarwal</t>
+          <t>Paul de Sa</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Georgetown University</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>GEORGETOWN UNIVERSITY</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
@@ -12518,22 +12498,22 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Mehrsa Baradaran</t>
-        </is>
-      </c>
-      <c r="D435" t="inlineStr">
+          <t>Gary Gensler</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>University of California, Irvine School of Law</t>
+          <t>Massachusetts Institute of Technology</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>UNIVERSITY OF CALIFORNIA</t>
+          <t>MASSACHUSETTS INSTITUTE OF TECHNOLOGY</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
@@ -12550,17 +12530,17 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Lisa Cook</t>
+          <t>Reena Aggarwal</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Michigan State University</t>
+          <t>Georgetown University</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>MICHIGAN STATE UNIVERSITY</t>
+          <t>GEORGETOWN UNIVERSITY</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
@@ -12577,17 +12557,22 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Amanda Fischer</t>
+          <t>Mehrsa Baradaran</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Washington Center for Equitable Growth</t>
+          <t>University of California, Irvine School of Law</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>WASHINGTON CENTER FOR EQUITABLE GROWTH</t>
+          <t>UNIVERSITY OF CALIFORNIA</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
@@ -12604,22 +12589,17 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Andy Green</t>
-        </is>
-      </c>
-      <c r="D438" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Lisa Cook</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Center for American Progress</t>
+          <t>Michigan State University</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>CENTER FOR AMERICAN PROGRESS</t>
+          <t>MICHIGAN STATE UNIVERSITY</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
@@ -12636,17 +12616,17 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Adrienne Harris</t>
+          <t>Amanda Fischer</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>University of Michigan</t>
+          <t>Washington Center for Equitable Growth</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>UNIVERSITY OF MICHIGAN</t>
+          <t>WASHINGTON CENTER FOR EQUITABLE GROWTH</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
@@ -12663,22 +12643,27 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Campbell Haynes</t>
+          <t>Andy Green</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Virginia Coordinated Campaign</t>
+          <t>Center for American Progress</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>VIRGINIA COORDINATED CAMPAIGN</t>
+          <t>CENTER FOR AMERICAN PROGRESS</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
@@ -12690,22 +12675,17 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Simon Johnson</t>
-        </is>
-      </c>
-      <c r="D441" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Adrienne Harris</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Massachusetts Institute of Technology</t>
+          <t>University of Michigan</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>MASSACHUSETTS INSTITUTE OF TECHNOLOGY</t>
+          <t>UNIVERSITY OF MICHIGAN</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
@@ -12722,22 +12702,22 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Dennis Kelleher</t>
+          <t>Campbell Haynes</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Better Markets, Inc.</t>
+          <t>Virginia Coordinated Campaign</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>BETTER MARKETS</t>
+          <t>VIRGINIA COORDINATED CAMPAIGN</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
@@ -12749,17 +12729,22 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Satyam Khanna</t>
+          <t>Simon Johnson</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>New York University, School of Law, Institute for Corporate Governance and Finance</t>
+          <t>Massachusetts Institute of Technology</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>NEW YORK UNIVERSITY</t>
+          <t>MASSACHUSETTS INSTITUTE OF TECHNOLOGY</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
@@ -12776,17 +12761,17 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Renaye Manley</t>
+          <t>Dennis Kelleher</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Service Employees International Union</t>
+          <t>Better Markets, Inc.</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>SERVICE EMPLOYEES INTERNATIONAL UNION</t>
+          <t>BETTER MARKETS</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
@@ -12803,17 +12788,17 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Lev Menand</t>
+          <t>Satyam Khanna</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Columbia University</t>
+          <t>New York University, School of Law, Institute for Corporate Governance and Finance</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>COLUMBIA UNIVERSITY</t>
+          <t>NEW YORK UNIVERSITY</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
@@ -12830,22 +12815,17 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Damon Silvers</t>
-        </is>
-      </c>
-      <c r="D446" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Renaye Manley</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>AFL-CIO</t>
+          <t>Service Employees International Union</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>AFL-CIO</t>
+          <t>SERVICE EMPLOYEES INTERNATIONAL UNION</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
@@ -12862,17 +12842,17 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Victoria Suarez-Palomo</t>
+          <t>Lev Menand</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Orrick, Herrington &amp; Sutcliffe, LLP</t>
+          <t>Columbia University</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>ORRICK HERRINGTON &amp; SUTCLIFFE</t>
+          <t>COLUMBIA UNIVERSITY</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
@@ -12884,32 +12864,27 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Federal Trade Commission</t>
+          <t>Federal Reserve, Banking and Securities Regulators</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Heather Hippsley</t>
-        </is>
-      </c>
-      <c r="C448" t="inlineStr">
+          <t>Damon Silvers</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Federal Trade Commission (Retired)</t>
+          <t>AFL-CIO</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>FEDERAL TRADE COMMISSION</t>
-        </is>
-      </c>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>(RETIRED)</t>
+          <t>AFL-CIO</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
@@ -12921,22 +12896,22 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Federal Trade Commission</t>
+          <t>Federal Reserve, Banking and Securities Regulators</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Bill Baer</t>
+          <t>Victoria Suarez-Palomo</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Brookings Institution</t>
+          <t>Orrick, Herrington &amp; Sutcliffe, LLP</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>BROOKINGS INSTITUTION</t>
+          <t>ORRICK HERRINGTON &amp; SUTCLIFFE</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
@@ -12953,17 +12928,27 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Laura Moy</t>
+          <t>Heather Hippsley</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Georgetown University</t>
+          <t>Federal Trade Commission (Retired)</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>GEORGETOWN UNIVERSITY</t>
+          <t>FEDERAL TRADE COMMISSION</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>(RETIRED)</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
@@ -12975,27 +12960,22 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>General Services Administration</t>
+          <t>Federal Trade Commission</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Katy Kale</t>
-        </is>
-      </c>
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Bill Baer</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Elevate, LLC</t>
+          <t>Brookings Institution</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>ELEVATE</t>
+          <t>BROOKINGS INSTITUTION</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
@@ -13007,22 +12987,22 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>General Services Administration</t>
+          <t>Federal Trade Commission</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Nate Denny</t>
+          <t>Laura Moy</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>State of North Carolina, Department of Information Technology</t>
+          <t>Georgetown University</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>STATE OF NORTH CAROLINA</t>
+          <t>GEORGETOWN UNIVERSITY</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
@@ -13039,17 +13019,22 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Zoe Garmendia</t>
+          <t>Katy Kale</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Democratic National Convention Committee</t>
+          <t>Elevate, LLC</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>DEMOCRATIC NATIONAL COMMITTEE</t>
+          <t>ELEVATE</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
@@ -13066,17 +13051,17 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Michael Hornsby</t>
+          <t>Nate Denny</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Salesforce.com, Inc.</t>
+          <t>State of North Carolina, Department of Information Technology</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>SALESFORCE</t>
+          <t>STATE OF NORTH CAROLINA</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
@@ -13093,17 +13078,17 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Gianelle Rivera</t>
+          <t>Zoe Garmendia</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Executive Office of Mayor Muriel Bowser, District of Columbia Government</t>
+          <t>Democratic National Convention Committee</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>DISTRICT OF COLUMBIA</t>
+          <t>DEMOCRATIC NATIONAL COMMITTEE</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
@@ -13120,17 +13105,17 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Josh Sawislak</t>
+          <t>Michael Hornsby</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Clio Strategies, LLC</t>
+          <t>Salesforce.com, Inc.</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>CLIO STRATEGIES</t>
+          <t>SALESFORCE</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
@@ -13142,27 +13127,22 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Intelligence Community</t>
+          <t>General Services Administration</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Stephanie O’Sullivan</t>
-        </is>
-      </c>
-      <c r="C457" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Gianelle Rivera</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Executive Office of Mayor Muriel Bowser, District of Columbia Government</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>DISTRICT OF COLUMBIA</t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
@@ -13174,27 +13154,22 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Intelligence Community</t>
+          <t>General Services Administration</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Vince Stewart</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Josh Sawislak</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Ankura Consulting</t>
+          <t>Clio Strategies, LLC</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>ANKURA CONSULTING</t>
+          <t>CLIO STRATEGIES</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
@@ -13211,17 +13186,22 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Spencer Boyer</t>
+          <t>Stephanie O’Sullivan</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>New York University, School of Law, Brennan Center for Justice</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>NEW YORK UNIVERSITY</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
@@ -13238,17 +13218,22 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Harry Coker</t>
+          <t>Vince Stewart</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Ankura Consulting</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>ANKURA CONSULTING</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
@@ -13265,17 +13250,17 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Dawn Eilenberger</t>
+          <t>Spencer Boyer</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>New York University, School of Law, Brennan Center for Justice</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>NEW YORK UNIVERSITY</t>
         </is>
       </c>
       <c r="H461" t="inlineStr">
@@ -13292,17 +13277,17 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Natalie Evans Harris</t>
+          <t>Harry Coker</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Brighthive</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>BRIGHTHIVE</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">
@@ -13319,22 +13304,17 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Jeohn Salone Favors</t>
-        </is>
-      </c>
-      <c r="D463" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Dawn Eilenberger</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Wachtell, Lipton, Rosen &amp; Katz</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>WACHTELL LIPTON ROSEN &amp; KATZ</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H463" t="inlineStr">
@@ -13351,17 +13331,17 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Melvin Gamble</t>
+          <t>Natalie Evans Harris</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Gamble Advisory Group</t>
+          <t>Brighthive</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>GAMBLE ADVISORY GROUP</t>
+          <t>BRIGHTHIVE</t>
         </is>
       </c>
       <c r="H464" t="inlineStr">
@@ -13378,7 +13358,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Karen Gibson</t>
+          <t>Jeohn Salone Favors</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -13388,12 +13368,12 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Wachtell, Lipton, Rosen &amp; Katz</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>WACHTELL LIPTON ROSEN &amp; KATZ</t>
         </is>
       </c>
       <c r="H465" t="inlineStr">
@@ -13410,17 +13390,17 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Allison Hall</t>
+          <t>Melvin Gamble</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Huntington Ingalls Industries</t>
+          <t>Gamble Advisory Group</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>HUNTINGTON INGALLS INDUSTRIES</t>
+          <t>GAMBLE ADVISORY GROUP</t>
         </is>
       </c>
       <c r="H466" t="inlineStr">
@@ -13437,17 +13417,22 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Milancy Harris</t>
+          <t>Karen Gibson</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Oversight Board Administration</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>OVERSIGHT BOARD ADMINISTRATION</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H467" t="inlineStr">
@@ -13464,17 +13449,17 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Justin Jackson</t>
+          <t>Allison Hall</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Huntington Ingalls Industries</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>HUNTINGTON INGALLS INDUSTRIES</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
@@ -13491,17 +13476,17 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Chris Kojm</t>
+          <t>Milancy Harris</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>George Washington University</t>
+          <t>Oversight Board Administration</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>GEORGE WASHINGTON UNIVERSITY</t>
+          <t>OVERSIGHT BOARD ADMINISTRATION</t>
         </is>
       </c>
       <c r="H469" t="inlineStr">
@@ -13518,17 +13503,17 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Rachel Lieber</t>
+          <t>Justin Jackson</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Facebook, Inc.</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>FACEBOOK</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H470" t="inlineStr">
@@ -13545,17 +13530,17 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Bob Litt</t>
+          <t>Chris Kojm</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Morrison &amp; Foerster LLC</t>
+          <t>George Washington University</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>MORRISON &amp; FOERSTER</t>
+          <t>GEORGE WASHINGTON UNIVERSITY</t>
         </is>
       </c>
       <c r="H471" t="inlineStr">
@@ -13572,22 +13557,17 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Kathy McGrath</t>
+          <t>Rachel Lieber</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Central Intelligence Agency (Retired)</t>
+          <t>Facebook, Inc.</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>CENTRAL INTELLIGENCE AGENCY</t>
-        </is>
-      </c>
-      <c r="G472" t="inlineStr">
-        <is>
-          <t>(RETIRED)</t>
+          <t>FACEBOOK</t>
         </is>
       </c>
       <c r="H472" t="inlineStr">
@@ -13604,17 +13584,17 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Carmen Middleton</t>
+          <t>Bob Litt</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>The Walt Disney Company</t>
+          <t>Morrison &amp; Foerster LLC</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>WALT DISNEY COMPANY</t>
+          <t>MORRISON &amp; FOERSTER</t>
         </is>
       </c>
       <c r="H473" t="inlineStr">
@@ -13631,17 +13611,22 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Ron Moultrie</t>
+          <t>Kathy McGrath</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Central Intelligence Agency (Retired)</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>CENTRAL INTELLIGENCE AGENCY</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>(RETIRED)</t>
         </is>
       </c>
       <c r="H474" t="inlineStr">
@@ -13658,17 +13643,17 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Shaun Murphy</t>
+          <t>Carmen Middleton</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>The Walt Disney Company</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>WALT DISNEY COMPANY</t>
         </is>
       </c>
       <c r="H475" t="inlineStr">
@@ -13685,17 +13670,17 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Matt Olsen</t>
+          <t>Ron Moultrie</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Uber Technologies, Inc.</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H476" t="inlineStr">
@@ -13712,17 +13697,17 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Jung Pak</t>
+          <t>Shaun Murphy</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Brookings Institution</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>BROOKINGS INSTITUTION</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H477" t="inlineStr">
@@ -13739,17 +13724,17 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Bruce Pease</t>
+          <t>Matt Olsen</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Uber Technologies, Inc.</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>UBER</t>
         </is>
       </c>
       <c r="H478" t="inlineStr">
@@ -13766,17 +13751,17 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Sean Roche</t>
+          <t>Jung Pak</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Helena Foundation</t>
+          <t>Brookings Institution</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>HELENA FOUNDATION</t>
+          <t>BROOKINGS INSTITUTION</t>
         </is>
       </c>
       <c r="H479" t="inlineStr">
@@ -13793,22 +13778,17 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Karen Schaefer</t>
+          <t>Bruce Pease</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Central Intelligence Agency (Retired)</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>CENTRAL INTELLIGENCE AGENCY</t>
-        </is>
-      </c>
-      <c r="G480" t="inlineStr">
-        <is>
-          <t>(RETIRED)</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H480" t="inlineStr">
@@ -13825,17 +13805,17 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Eric Velez-Villar</t>
+          <t>Sean Roche</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Velez Security Solutions, LLC</t>
+          <t>Helena Foundation</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>VELEZ SECURITY SOLUTIONS</t>
+          <t>HELENA FOUNDATION</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
@@ -13852,17 +13832,22 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Greg Vogle</t>
+          <t>Karen Schaefer</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>McChrystal Group</t>
+          <t>Central Intelligence Agency (Retired)</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>MCCHRYSTAL GROUP</t>
+          <t>CENTRAL INTELLIGENCE AGENCY</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>(RETIRED)</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
@@ -13874,27 +13859,22 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>International Development</t>
+          <t>Intelligence Community</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Linda Etim</t>
-        </is>
-      </c>
-      <c r="C483" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Eric Velez-Villar</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Bill &amp; Melinda Gates Foundation</t>
+          <t>Velez Security Solutions, LLC</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>BILL &amp; MELINDA GATES FOUNDATION</t>
+          <t>VELEZ SECURITY SOLUTIONS</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
@@ -13906,27 +13886,22 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>International Development</t>
+          <t>Intelligence Community</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Elizabeth Littlefield</t>
-        </is>
-      </c>
-      <c r="C484" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Greg Vogle</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Albright Stonebridge Group</t>
+          <t>McChrystal Group</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>ALBRIGHT STONEBRIDGE GROUP</t>
+          <t>MCCHRYSTAL GROUP</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
@@ -13943,17 +13918,22 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Cameron Alford</t>
+          <t>Linda Etim</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>U.S. Bank</t>
+          <t>Bill &amp; Melinda Gates Foundation</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>US BANK</t>
+          <t>BILL &amp; MELINDA GATES FOUNDATION</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
@@ -13970,17 +13950,22 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Ashley Allen</t>
+          <t>Elizabeth Littlefield</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Oatly</t>
+          <t>Albright Stonebridge Group</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>OATLY</t>
+          <t>ALBRIGHT STONEBRIDGE GROUP</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
@@ -13997,17 +13982,17 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Bama Athreya</t>
+          <t>Cameron Alford</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>Laudes Foundation</t>
+          <t>U.S. Bank</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>LAUDES FOUNDATION</t>
+          <t>US BANK</t>
         </is>
       </c>
       <c r="H487" t="inlineStr">
@@ -14024,17 +14009,17 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Gabriela Baca</t>
+          <t>Ashley Allen</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>White &amp; Case, LLP</t>
+          <t>Oatly</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>WHITE &amp; CASE</t>
+          <t>OATLY</t>
         </is>
       </c>
       <c r="H488" t="inlineStr">
@@ -14051,17 +14036,17 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Alex Crabtree</t>
+          <t>Bama Athreya</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>American Civil Liberties Union</t>
+          <t>Laudes Foundation</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>AMERICAN CIVIL LIBERTIES UNION</t>
+          <t>LAUDES FOUNDATION</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
@@ -14078,22 +14063,17 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Beth Dunford</t>
+          <t>Gabriela Baca</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>United States Agency for International Development (Retired)</t>
+          <t>White &amp; Case, LLP</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>UNITED STATES AGENCY FOR INTERNATIONAL DEVELOPMENT</t>
-        </is>
-      </c>
-      <c r="G490" t="inlineStr">
-        <is>
-          <t>(RETIRED)</t>
+          <t>WHITE &amp; CASE</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
@@ -14110,17 +14090,17 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Chinesom Ejiasa</t>
+          <t>Alex Crabtree</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Sums 15 Holdings, LLC</t>
+          <t>American Civil Liberties Union</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>SUMS 15 HOLDINGS</t>
+          <t>AMERICAN CIVIL LIBERTIES UNION</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
@@ -14137,17 +14117,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Dina Esposito</t>
+          <t>Angelique Crumbly</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Mercy Corps</t>
-        </is>
-      </c>
-      <c r="F492" t="inlineStr">
-        <is>
-          <t>MERCY CORPS</t>
+          <t>United Nations Development Program</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
@@ -14164,17 +14139,22 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Kate Gage</t>
+          <t>Beth Dunford</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>The Movement Cooperative</t>
+          <t>United States Agency for International Development (Retired)</t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>MOVEMENT COOPERATIVE</t>
+          <t>UNITED STATES AGENCY FOR INTERNATIONAL DEVELOPMENT</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>(RETIRED)</t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
@@ -14191,17 +14171,17 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Tara Guelig</t>
+          <t>Chinesom Ejiasa</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>The Lightsmith Group</t>
+          <t>Sums 15 Holdings, LLC</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>LIGHTSMITH GROUP</t>
+          <t>SUMS 15 HOLDINGS</t>
         </is>
       </c>
       <c r="H494" t="inlineStr">
@@ -14218,17 +14198,17 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Charles Holmes</t>
+          <t>Dina Esposito</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Georgetown University</t>
+          <t>Mercy Corps</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>GEORGETOWN UNIVERSITY</t>
+          <t>MERCY CORPS</t>
         </is>
       </c>
       <c r="H495" t="inlineStr">
@@ -14245,17 +14225,17 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Cindy Huang</t>
+          <t>Kate Gage</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>Refugees International</t>
+          <t>The Movement Cooperative</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>REFUGEES INTERNATIONAL</t>
+          <t>MOVEMENT COOPERATIVE</t>
         </is>
       </c>
       <c r="H496" t="inlineStr">
@@ -14272,22 +14252,17 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Cristina Killingsworth</t>
-        </is>
-      </c>
-      <c r="D497" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Tara Guelig</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>WestExec Advisors</t>
+          <t>The Lightsmith Group</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>WESTEXEC ADVISORS</t>
+          <t>LIGHTSMITH GROUP</t>
         </is>
       </c>
       <c r="H497" t="inlineStr">
@@ -14304,17 +14279,17 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Brian O’Hanlon</t>
+          <t>Charles Holmes</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Rocky Mountain Institute</t>
+          <t>Georgetown University</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>ROCKY MOUNTAIN INSTITUTE</t>
+          <t>GEORGETOWN UNIVERSITY</t>
         </is>
       </c>
       <c r="H498" t="inlineStr">
@@ -14331,22 +14306,17 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Fouad Saad</t>
-        </is>
-      </c>
-      <c r="D499" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Cindy Huang</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Refugees International</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>REFUGEES INTERNATIONAL</t>
         </is>
       </c>
       <c r="H499" t="inlineStr">
@@ -14363,17 +14333,22 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Michele Sumilas</t>
+          <t>Cristina Killingsworth</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Bread for the World</t>
+          <t>WestExec Advisors</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>BREAD FOR THE WORLD</t>
+          <t>WESTEXEC ADVISORS</t>
         </is>
       </c>
       <c r="H500" t="inlineStr">
@@ -14390,22 +14365,17 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Zaid Zaid</t>
-        </is>
-      </c>
-      <c r="D501" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Brian O’Hanlon</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Facebook, Inc.</t>
+          <t>Rocky Mountain Institute</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>FACEBOOK</t>
+          <t>ROCKY MOUNTAIN INSTITUTE</t>
         </is>
       </c>
       <c r="H501" t="inlineStr">
@@ -14417,27 +14387,27 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>National Aeronautics and Space Administration</t>
+          <t>International Development</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Ellen Stofan</t>
-        </is>
-      </c>
-      <c r="C502" t="inlineStr">
+          <t>Fouad Saad</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>The Smithsonian Institution</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>SMITHSONIAN INSTITUTION</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H502" t="inlineStr">
@@ -14449,22 +14419,22 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>National Aeronautics and Space Administration</t>
+          <t>International Development</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Waleed Abdalati</t>
+          <t>Michele Sumilas</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>University of Colorado Boulder</t>
+          <t>Bread for the World</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>UNIVERSITY OF COLORADO</t>
+          <t>BREAD FOR THE WORLD</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
@@ -14476,22 +14446,27 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>National Aeronautics and Space Administration</t>
+          <t>International Development</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Jedidah Isler</t>
+          <t>Zaid Zaid</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>Dartmouth College</t>
+          <t>Facebook, Inc.</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>DARTMOUTH COLLEGE</t>
+          <t>FACEBOOK</t>
         </is>
       </c>
       <c r="H504" t="inlineStr">
@@ -14508,22 +14483,22 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Bhavya Lal</t>
-        </is>
-      </c>
-      <c r="D505" t="inlineStr">
+          <t>Ellen Stofan</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>IDA Science and Technology Policy Institute</t>
+          <t>The Smithsonian Institution</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>IDA SCIENCE AND TECHNOLOGY POLICY INSTITUTE</t>
+          <t>SMITHSONIAN INSTITUTION</t>
         </is>
       </c>
       <c r="H505" t="inlineStr">
@@ -14540,17 +14515,17 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Pam Melroy</t>
+          <t>Waleed Abdalati</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>University of Colorado Boulder</t>
         </is>
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>UNIVERSITY OF COLORADO</t>
         </is>
       </c>
       <c r="H506" t="inlineStr">
@@ -14567,22 +14542,17 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Dave Noble</t>
-        </is>
-      </c>
-      <c r="D507" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Jedidah Isler</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>American Civil Liberties Union of Michigan</t>
+          <t>Dartmouth College</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>AMERICAN CIVIL LIBERTIES UNION</t>
+          <t>DARTMOUTH COLLEGE</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
@@ -14599,17 +14569,22 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Shannon Valley</t>
+          <t>Bhavya Lal</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>Georgia Institute of Technology</t>
+          <t>IDA Science and Technology Policy Institute</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>GEORGIA INSTITUTE OF TECHNOLOGY</t>
+          <t>IDA SCIENCE AND TECHNOLOGY POLICY INSTITUTE</t>
         </is>
       </c>
       <c r="H508" t="inlineStr">
@@ -14626,17 +14601,17 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>David Weaver</t>
+          <t>Pam Melroy</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>Air Line Pilots Association</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>AIR LINE PILOTS ASSOCIATION</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
@@ -14648,27 +14623,27 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>National Security Council</t>
+          <t>National Aeronautics and Space Administration</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Jeff Prescott</t>
-        </is>
-      </c>
-      <c r="C510" t="inlineStr">
+          <t>Dave Noble</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>National Security Action</t>
+          <t>American Civil Liberties Union of Michigan</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>NATIONAL SECURITY ACTION</t>
+          <t>AMERICAN CIVIL LIBERTIES UNION</t>
         </is>
       </c>
       <c r="H510" t="inlineStr">
@@ -14680,54 +14655,54 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>National Security Council</t>
+          <t>National Aeronautics and Space Administration</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Ariana Berengaut</t>
+          <t>Shannon Valley</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>University of Pennsylvania</t>
+          <t>Georgia Institute of Technology</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>UNIVERSITY OF PENNSYLVANIA</t>
+          <t>GEORGIA INSTITUTE OF TECHNOLOGY</t>
         </is>
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>National Security Council</t>
+          <t>National Aeronautics and Space Administration</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Alexander Bick</t>
+          <t>David Weaver</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>Johns Hopkins University, School of Advanced International Studies</t>
+          <t>Air Line Pilots Association</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>JOHNS HOPKINS UNIVERSITY</t>
+          <t>AIR LINE PILOTS ASSOCIATION</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
@@ -14739,17 +14714,22 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Maren Brooks</t>
+          <t>Jeff Prescott</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>PenFed Foundation</t>
+          <t>National Security Action</t>
         </is>
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>PENFED FOUNDATION</t>
+          <t>NATIONAL SECURITY ACTION</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
@@ -14766,27 +14746,22 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Jeohn Salone Favors</t>
-        </is>
-      </c>
-      <c r="D514" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Ariana Berengaut</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>Wachtell, Lipton, Rosen &amp; Katz</t>
+          <t>University of Pennsylvania</t>
         </is>
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>WACHTELL LIPTON ROSEN &amp; KATZ</t>
+          <t>UNIVERSITY OF PENNSYLVANIA</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
@@ -14798,22 +14773,22 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Christopher Fonzone</t>
+          <t>Alexander Bick</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>Sidley Austin, LLP</t>
+          <t>Johns Hopkins University, School of Advanced International Studies</t>
         </is>
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>SIDLEY AUSTIN</t>
+          <t>JOHNS HOPKINS UNIVERSITY</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
@@ -14825,17 +14800,17 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Clare Gallagher</t>
+          <t>Maren Brooks</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>Airbnb, Inc.</t>
+          <t>PenFed Foundation</t>
         </is>
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>AIRBNB</t>
+          <t>PENFED FOUNDATION</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
@@ -14852,17 +14827,22 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Paula Garcia Tufro</t>
+          <t>Jeohn Salone Favors</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>United States Institute of Peace</t>
+          <t>Wachtell, Lipton, Rosen &amp; Katz</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>UNITED STATES INSTITUTE OF PEACE</t>
+          <t>WACHTELL LIPTON ROSEN &amp; KATZ</t>
         </is>
       </c>
       <c r="H517" t="inlineStr">
@@ -14879,17 +14859,17 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Colin Kahl</t>
+          <t>Christopher Fonzone</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>Stanford University</t>
+          <t>Sidley Austin, LLP</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>STANFORD UNIVERSITY</t>
+          <t>SIDLEY AUSTIN</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
@@ -14906,22 +14886,17 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Rebecca Katz</t>
-        </is>
-      </c>
-      <c r="D519" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Clare Gallagher</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>Georgetown University</t>
+          <t>Airbnb, Inc.</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>GEORGETOWN UNIVERSITY</t>
+          <t>AIRBNB</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
@@ -14938,27 +14913,22 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Austin Lin</t>
-        </is>
-      </c>
-      <c r="D520" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Paula Garcia Tufro</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>Chan Zuckerberg Initiative</t>
+          <t>United States Institute of Peace</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>CHAN ZUCKERBERG INITIATIVE</t>
+          <t>UNITED STATES INSTITUTE OF PEACE</t>
         </is>
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
@@ -14970,17 +14940,17 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Kelly Magsamen</t>
+          <t>Colin Kahl</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>Center for American Progress</t>
+          <t>Stanford University</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>CENTER FOR AMERICAN PROGRESS</t>
+          <t>STANFORD UNIVERSITY</t>
         </is>
       </c>
       <c r="H521" t="inlineStr">
@@ -14997,22 +14967,27 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Brian McKeon</t>
+          <t>Rebecca Katz</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Georgetown University</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>GEORGETOWN UNIVERSITY</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
@@ -15024,22 +14999,27 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Michael Ortiz</t>
+          <t>Austin Lin</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>Sequoia Capital Operations, LLC</t>
+          <t>Chan Zuckerberg Initiative</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>SEQUOIA CAPITAL OPERATIONS</t>
+          <t>CHAN ZUCKERBERG INITIATIVE</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
@@ -15051,22 +15031,22 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Carlyn Reichel</t>
+          <t>Kelly Magsamen</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>Biden for President</t>
+          <t>Center for American Progress</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>BIDEN FOR PRESIDENT</t>
+          <t>CENTER FOR AMERICAN PROGRESS</t>
         </is>
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
@@ -15078,17 +15058,12 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Dilpreet Sidhu</t>
+          <t>Monica Maher</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>City of Los Angeles</t>
-        </is>
-      </c>
-      <c r="F525" t="inlineStr">
-        <is>
-          <t>CITY OF LOS ANGELES</t>
+          <t>Goldman Sachs &amp; Co.</t>
         </is>
       </c>
       <c r="H525" t="inlineStr">
@@ -15105,12 +15080,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Pav Singh</t>
-        </is>
-      </c>
-      <c r="D526" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Brian McKeon</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
@@ -15125,7 +15095,7 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
@@ -15137,22 +15107,17 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Nicole Wong</t>
-        </is>
-      </c>
-      <c r="D527" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Michael Ortiz</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Sequoia Capital Operations, LLC</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>SEQUOIA CAPITAL OPERATIONS</t>
         </is>
       </c>
       <c r="H527" t="inlineStr">
@@ -15169,44 +15134,44 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Jasmine Wyatt</t>
+          <t>Carlyn Reichel</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>U.S. Senate Foreign Relations Committee</t>
+          <t>Biden for President</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>BIDEN FOR PRESIDENT</t>
         </is>
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Transition — Appropriation</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Office of Management and Budget</t>
+          <t>National Security Council</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Martha Coven</t>
-        </is>
-      </c>
-      <c r="C529" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Dilpreet Sidhu</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>Princeton University</t>
+          <t>City of Los Angeles</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>PRINCETON UNIVERSITY</t>
+          <t>CITY OF LOS ANGELES</t>
         </is>
       </c>
       <c r="H529" t="inlineStr">
@@ -15218,12 +15183,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Office of Management and Budget</t>
+          <t>National Security Council</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Sasha Baker</t>
+          <t>Pav Singh</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -15233,39 +15198,44 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>Office of Senator Elizabeth Warren</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>SENATOR ELIZABETH WARREN</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Office of Management and Budget</t>
+          <t>National Security Council</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Brandon Belford</t>
+          <t>Nicole Wong</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>Lyft, Inc.</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>LYFT</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H531" t="inlineStr">
@@ -15277,27 +15247,22 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Office of Management and Budget</t>
+          <t>National Security Council</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Bridget Dooling</t>
+          <t>Jasmine Wyatt</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>George Washington University</t>
-        </is>
-      </c>
-      <c r="F532" t="inlineStr">
-        <is>
-          <t>GEORGE WASHINGTON UNIVERSITY</t>
+          <t>U.S. Senate Foreign Relations Committee</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — Appropriation</t>
         </is>
       </c>
     </row>
@@ -15309,22 +15274,22 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Cristina Killingsworth</t>
-        </is>
-      </c>
-      <c r="D533" t="inlineStr">
+          <t>Martha Coven</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>WestExec Advisors</t>
+          <t>Princeton University</t>
         </is>
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>WESTEXEC ADVISORS</t>
+          <t>PRINCETON UNIVERSITY</t>
         </is>
       </c>
       <c r="H533" t="inlineStr">
@@ -15341,22 +15306,27 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Divya Kumaraiah</t>
+          <t>Sasha Baker</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>Airbnb, Inc.</t>
+          <t>Office of Senator Elizabeth Warren</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>AIRBNB</t>
+          <t>SENATOR ELIZABETH WARREN</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
@@ -15368,17 +15338,17 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Elisa Montoya</t>
+          <t>Brandon Belford</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>Meow Wolf, Inc.</t>
+          <t>Lyft, Inc.</t>
         </is>
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>MEOW WOLF</t>
+          <t>LYFT</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
@@ -15395,17 +15365,17 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Mark Schwartz</t>
+          <t>Bridget Dooling</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>Amazon Web Services</t>
+          <t>George Washington University</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>GEORGE WASHINGTON UNIVERSITY</t>
         </is>
       </c>
       <c r="H536" t="inlineStr">
@@ -15422,7 +15392,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Samantha Silverberg</t>
+          <t>Cristina Killingsworth</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -15432,12 +15402,12 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>Massachusetts Bay Transportation Authority</t>
+          <t>WestExec Advisors</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>MASSACHUSETTS BAY TRANSPORTATION AUTHORITY</t>
+          <t>WESTEXEC ADVISORS</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
@@ -15454,17 +15424,17 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Christen Linke Young</t>
+          <t>Divya Kumaraiah</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>Brookings Institution</t>
+          <t>Airbnb, Inc.</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>BROOKINGS INSTITUTION</t>
+          <t>AIRBNB</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
@@ -15476,27 +15446,22 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Office of National Drug Control Policy</t>
+          <t>Office of Management and Budget</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Rahul Gupta</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Elisa Montoya</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>March of Dimes</t>
+          <t>Meow Wolf, Inc.</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>MARCH OF DIMES</t>
+          <t>MEOW WOLF</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
@@ -15508,22 +15473,22 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Office of National Drug Control Policy</t>
+          <t>Office of Management and Budget</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Regina LaBelle</t>
+          <t>Mark Schwartz</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>Georgetown University</t>
+          <t>Amazon Web Services</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>GEORGETOWN UNIVERSITY</t>
+          <t>AMAZON</t>
         </is>
       </c>
       <c r="H540" t="inlineStr">
@@ -15535,22 +15500,27 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Office of National Drug Control Policy</t>
+          <t>Office of Management and Budget</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Kim Leary</t>
+          <t>Samantha Silverberg</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>Urban Institute</t>
+          <t>Massachusetts Bay Transportation Authority</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>URBAN INSTITUTE</t>
+          <t>MASSACHUSETTS BAY TRANSPORTATION AUTHORITY</t>
         </is>
       </c>
       <c r="H541" t="inlineStr">
@@ -15562,22 +15532,22 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Office of National Drug Control Policy</t>
+          <t>Office of Management and Budget</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Mario Moreno</t>
+          <t>Christen Linke Young</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>Washington Office on Latin America</t>
+          <t>Brookings Institution</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>WASHINGTON OFFICE ON LATIN AMERICA</t>
+          <t>BROOKINGS INSTITUTION</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
@@ -15594,22 +15564,22 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Dave Noble</t>
-        </is>
-      </c>
-      <c r="D543" t="inlineStr">
+          <t>Rahul Gupta</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>American Civil Liberties Union of Michigan</t>
+          <t>March of Dimes</t>
         </is>
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>AMERICAN CIVIL LIBERTIES UNION</t>
+          <t>MARCH OF DIMES</t>
         </is>
       </c>
       <c r="H543" t="inlineStr">
@@ -15626,22 +15596,17 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Kimberly O’Connor</t>
-        </is>
-      </c>
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Regina LaBelle</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>The Levy Group, Inc.</t>
+          <t>Georgetown University</t>
         </is>
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>LEVY GROUP</t>
+          <t>GEORGETOWN UNIVERSITY</t>
         </is>
       </c>
       <c r="H544" t="inlineStr">
@@ -15653,27 +15618,22 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Office of Personnel Management</t>
+          <t>Office of National Drug Control Policy</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Kiran Ahuja</t>
-        </is>
-      </c>
-      <c r="C545" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Kim Leary</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>Philanthropy Northwest</t>
+          <t>Urban Institute</t>
         </is>
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>PHILANTHROPY NORTHWEST</t>
+          <t>URBAN INSTITUTE</t>
         </is>
       </c>
       <c r="H545" t="inlineStr">
@@ -15685,22 +15645,22 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Office of Personnel Management</t>
+          <t>Office of National Drug Control Policy</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Rita Aguilar</t>
+          <t>Mario Moreno</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>College Promise Campaign</t>
+          <t>Washington Office on Latin America</t>
         </is>
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>COLLEGE PROMISE CAMPAIGN</t>
+          <t>WASHINGTON OFFICE ON LATIN AMERICA</t>
         </is>
       </c>
       <c r="H546" t="inlineStr">
@@ -15712,22 +15672,27 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Office of Personnel Management</t>
+          <t>Office of National Drug Control Policy</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Chris Canning</t>
+          <t>Dave Noble</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>DKC Public Relations</t>
+          <t>American Civil Liberties Union of Michigan</t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>DKC PUBLIC RELATIONS</t>
+          <t>AMERICAN CIVIL LIBERTIES UNION</t>
         </is>
       </c>
       <c r="H547" t="inlineStr">
@@ -15739,22 +15704,27 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Office of Personnel Management</t>
+          <t>Office of National Drug Control Policy</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Theodora Chang</t>
+          <t>Kimberly O’Connor</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>Partnership for Public Service</t>
+          <t>The Levy Group, Inc.</t>
         </is>
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>PARTNERSHIP FOR PUBLIC SERVICE</t>
+          <t>LEVY GROUP</t>
         </is>
       </c>
       <c r="H548" t="inlineStr">
@@ -15771,17 +15741,22 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Matt Collier</t>
+          <t>Kiran Ahuja</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>Prudential PLC</t>
+          <t>Philanthropy Northwest</t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>PRUDENTIAL PLC</t>
+          <t>PHILANTHROPY NORTHWEST</t>
         </is>
       </c>
       <c r="H549" t="inlineStr">
@@ -15798,17 +15773,17 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Melody Gonzales</t>
+          <t>Rita Aguilar</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>National Education Association</t>
+          <t>College Promise Campaign</t>
         </is>
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>NATIONAL EDUCATION ASSOCIATION</t>
+          <t>COLLEGE PROMISE CAMPAIGN</t>
         </is>
       </c>
       <c r="H550" t="inlineStr">
@@ -15825,17 +15800,17 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Anne Harkavy</t>
+          <t>Chris Canning</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>Democracy Forward Foundation</t>
+          <t>DKC Public Relations</t>
         </is>
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>DEMOCRACY FORWARD FOUNDATION</t>
+          <t>DKC PUBLIC RELATIONS</t>
         </is>
       </c>
       <c r="H551" t="inlineStr">
@@ -15852,17 +15827,17 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Jane Lee</t>
+          <t>Theodora Chang</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>1560, LLC</t>
+          <t>Partnership for Public Service</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>1560 LLC</t>
+          <t>PARTNERSHIP FOR PUBLIC SERVICE</t>
         </is>
       </c>
       <c r="H552" t="inlineStr">
@@ -15879,17 +15854,17 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>David Marsh</t>
+          <t>Matt Collier</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>Markle Foundation</t>
+          <t>Prudential PLC</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>MARKLE FOUNDATION</t>
+          <t>PRUDENTIAL PLC</t>
         </is>
       </c>
       <c r="H553" t="inlineStr">
@@ -15906,12 +15881,17 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Cathie McQuiston</t>
+          <t>Melody Gonzales</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>American Federation of Government Employees, AFL-CIO</t>
+          <t>National Education Association</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>NATIONAL EDUCATION ASSOCIATION</t>
         </is>
       </c>
       <c r="H554" t="inlineStr">
@@ -15928,17 +15908,17 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Andrew Stanner</t>
+          <t>Anne Harkavy</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>Covington &amp; Burling LLP</t>
+          <t>Democracy Forward Foundation</t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>COVINGTON &amp; BURLING</t>
+          <t>DEMOCRACY FORWARD FOUNDATION</t>
         </is>
       </c>
       <c r="H555" t="inlineStr">
@@ -15950,27 +15930,22 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Office of Science and Technology Policy</t>
+          <t>Office of Personnel Management</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Cristin Dorgelo</t>
-        </is>
-      </c>
-      <c r="C556" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Jane Lee</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>Association of Science and Technology Centers</t>
+          <t>1560, LLC</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>ASSOCIATION OF SCIENCE AND TECHNOLOGY CENTERS</t>
+          <t>1560 LLC</t>
         </is>
       </c>
       <c r="H556" t="inlineStr">
@@ -15982,22 +15957,22 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Office of Science and Technology Policy</t>
+          <t>Office of Personnel Management</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Andrew Hebbeler</t>
+          <t>David Marsh</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>Nuclear Threat Initiative</t>
+          <t>Markle Foundation</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>NUCLEAR THREAT INITIATIVE</t>
+          <t>MARKLE FOUNDATION</t>
         </is>
       </c>
       <c r="H557" t="inlineStr">
@@ -16009,27 +15984,17 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Office of Science and Technology Policy</t>
+          <t>Office of Personnel Management</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Kei Koizumi</t>
-        </is>
-      </c>
-      <c r="D558" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Cathie McQuiston</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>The American Association for the Advancement of Science</t>
-        </is>
-      </c>
-      <c r="F558" t="inlineStr">
-        <is>
-          <t>AMERICAN ASSOCIATION FOR THE ADVANCEMENT OF SCIENCE</t>
+          <t>American Federation of Government Employees, AFL-CIO</t>
         </is>
       </c>
       <c r="H558" t="inlineStr">
@@ -16041,27 +16006,22 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Office of Science and Technology Policy</t>
+          <t>Office of Personnel Management</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Mahlet Mesfin</t>
-        </is>
-      </c>
-      <c r="D559" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Andrew Stanner</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>University of Pennsylvania</t>
+          <t>Covington &amp; Burling LLP</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>UNIVERSITY OF PENNSYLVANIA</t>
+          <t>COVINGTON &amp; BURLING</t>
         </is>
       </c>
       <c r="H559" t="inlineStr">
@@ -16078,17 +16038,22 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Dave Reidmiller</t>
+          <t>Cristin Dorgelo</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>Gulf of Maine Research Institute</t>
+          <t>Association of Science and Technology Centers</t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>GULF OF MAINE RESEARCH INSTITUTE</t>
+          <t>ASSOCIATION OF SCIENCE AND TECHNOLOGY CENTERS</t>
         </is>
       </c>
       <c r="H560" t="inlineStr">
@@ -16105,22 +16070,17 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Pav Singh</t>
-        </is>
-      </c>
-      <c r="D561" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Andrew Hebbeler</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Nuclear Threat Initiative</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>NUCLEAR THREAT INITIATIVE</t>
         </is>
       </c>
       <c r="H561" t="inlineStr">
@@ -16137,17 +16097,22 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Erin Szulman</t>
+          <t>Kei Koizumi</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>EVgo</t>
+          <t>The American Association for the Advancement of Science</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>EVGO</t>
+          <t>AMERICAN ASSOCIATION FOR THE ADVANCEMENT OF SCIENCE</t>
         </is>
       </c>
       <c r="H562" t="inlineStr">
@@ -16164,7 +16129,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Nicole Wong</t>
+          <t>Mahlet Mesfin</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -16174,12 +16139,12 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>University of Pennsylvania</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>UNIVERSITY OF PENNSYLVANIA</t>
         </is>
       </c>
       <c r="H563" t="inlineStr">
@@ -16191,27 +16156,22 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Office of the United States Trade Representative</t>
+          <t>Office of Science and Technology Policy</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Jason Miller</t>
-        </is>
-      </c>
-      <c r="C564" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Dave Reidmiller</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Gulf of Maine Research Institute</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>GULF OF MAINE RESEARCH INSTITUTE</t>
         </is>
       </c>
       <c r="H564" t="inlineStr">
@@ -16223,22 +16183,27 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Office of the United States Trade Representative</t>
+          <t>Office of Science and Technology Policy</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Kathleen Claussen</t>
+          <t>Pav Singh</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>University of Miami</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>UNIVERSITY OF MIAMI</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H565" t="inlineStr">
@@ -16250,27 +16215,22 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Office of the United States Trade Representative</t>
+          <t>Office of Science and Technology Policy</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Ted Dean</t>
-        </is>
-      </c>
-      <c r="D566" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Erin Szulman</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>Dropbox</t>
+          <t>EVgo</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>DROPBOX</t>
+          <t>EVGO</t>
         </is>
       </c>
       <c r="H566" t="inlineStr">
@@ -16282,22 +16242,27 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Office of the United States Trade Representative</t>
+          <t>Office of Science and Technology Policy</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Celeste Drake</t>
+          <t>Nicole Wong</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>Directors Guild of America</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>DIRECTORS GUILD OF AMERICA</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H567" t="inlineStr">
@@ -16314,22 +16279,22 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Michelle DuBois</t>
-        </is>
-      </c>
-      <c r="D568" t="inlineStr">
+          <t>Jason Miller</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>Values Partnerships</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>VALUES PARTNERSHIPS</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H568" t="inlineStr">
@@ -16346,17 +16311,17 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Julie Greene</t>
+          <t>Kathleen Claussen</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>AFL-CIO</t>
+          <t>University of Miami</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>AFL-CIO</t>
+          <t>UNIVERSITY OF MIAMI</t>
         </is>
       </c>
       <c r="H569" t="inlineStr">
@@ -16373,17 +16338,22 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Elizabeth Kelley</t>
+          <t>Ted Dean</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>Urban Institute</t>
+          <t>Dropbox</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>URBAN INSTITUTE</t>
+          <t>DROPBOX</t>
         </is>
       </c>
       <c r="H570" t="inlineStr">
@@ -16400,22 +16370,17 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Riley Ohlson</t>
-        </is>
-      </c>
-      <c r="D571" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Celeste Drake</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>Alliance for American Manufacturing</t>
+          <t>Directors Guild of America</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>ALLIANCE FOR AMERICAN MANUFACTURING</t>
+          <t>DIRECTORS GUILD OF AMERICA</t>
         </is>
       </c>
       <c r="H571" t="inlineStr">
@@ -16432,7 +16397,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Patrick Schaefer</t>
+          <t>Michelle DuBois</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -16442,12 +16407,12 @@
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>State of New Mexico</t>
+          <t>Values Partnerships</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>STATE OF NEW MEXICO</t>
+          <t>VALUES PARTNERSHIPS</t>
         </is>
       </c>
       <c r="H572" t="inlineStr">
@@ -16464,17 +16429,17 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Daniel Sepulveda</t>
+          <t>Julie Greene</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>MediaMath</t>
+          <t>AFL-CIO</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>MEDIAMATH</t>
+          <t>AFL-CIO</t>
         </is>
       </c>
       <c r="H573" t="inlineStr">
@@ -16491,17 +16456,17 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Brad Setser</t>
+          <t>Elizabeth Kelley</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>Council on Foreign Relations</t>
+          <t>Urban Institute</t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>COUNCIL ON FOREIGN RELATIONS</t>
+          <t>URBAN INSTITUTE</t>
         </is>
       </c>
       <c r="H574" t="inlineStr">
@@ -16518,7 +16483,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Todd Tucker</t>
+          <t>Riley Ohlson</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -16528,12 +16493,12 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>The Roosevelt Institute</t>
+          <t>Alliance for American Manufacturing</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>ROOSEVELT INSTITUTE</t>
+          <t>ALLIANCE FOR AMERICAN MANUFACTURING</t>
         </is>
       </c>
       <c r="H575" t="inlineStr">
@@ -16550,7 +16515,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Arun Venkataraman</t>
+          <t>Patrick Schaefer</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -16560,12 +16525,12 @@
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>Visa, Inc.</t>
+          <t>State of New Mexico</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>VISA</t>
+          <t>STATE OF NEW MEXICO</t>
         </is>
       </c>
       <c r="H576" t="inlineStr">
@@ -16582,17 +16547,17 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Mark Wu</t>
+          <t>Daniel Sepulveda</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>Harvard Law School</t>
+          <t>MediaMath</t>
         </is>
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>HARVARD UNIVERSITY</t>
+          <t>MEDIAMATH</t>
         </is>
       </c>
       <c r="H577" t="inlineStr">
@@ -16609,17 +16574,17 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Ryan Zamarripa</t>
+          <t>Brad Setser</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>Center for American Progress</t>
+          <t>Council on Foreign Relations</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>CENTER FOR AMERICAN PROGRESS</t>
+          <t>COUNCIL ON FOREIGN RELATIONS</t>
         </is>
       </c>
       <c r="H578" t="inlineStr">
@@ -16631,27 +16596,27 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Small Business Administration</t>
+          <t>Office of the United States Trade Representative</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Jonathan Swain</t>
-        </is>
-      </c>
-      <c r="C579" t="inlineStr">
+          <t>Todd Tucker</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>Harvard University</t>
+          <t>The Roosevelt Institute</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>HARVARD UNIVERSITY</t>
+          <t>ROOSEVELT INSTITUTE</t>
         </is>
       </c>
       <c r="H579" t="inlineStr">
@@ -16663,12 +16628,12 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Small Business Administration</t>
+          <t>Office of the United States Trade Representative</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Xavier Briggs</t>
+          <t>Arun Venkataraman</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
@@ -16678,12 +16643,12 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>New York University</t>
+          <t>Visa, Inc.</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>NEW YORK UNIVERSITY</t>
+          <t>VISA</t>
         </is>
       </c>
       <c r="H580" t="inlineStr">
@@ -16695,22 +16660,22 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Small Business Administration</t>
+          <t>Office of the United States Trade Representative</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Cassius F. Butts</t>
+          <t>Mark Wu</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>1st Choice Credit Union</t>
+          <t>Harvard Law School</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>1ST CHOICE CREDIT UNION</t>
+          <t>HARVARD UNIVERSITY</t>
         </is>
       </c>
       <c r="H581" t="inlineStr">
@@ -16722,27 +16687,22 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Small Business Administration</t>
+          <t>Office of the United States Trade Representative</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Liyan David Chang</t>
-        </is>
-      </c>
-      <c r="D582" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Ryan Zamarripa</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>Devoted Health</t>
+          <t>Center for American Progress</t>
         </is>
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>DEVOTED HEALTH</t>
+          <t>CENTER FOR AMERICAN PROGRESS</t>
         </is>
       </c>
       <c r="H582" t="inlineStr">
@@ -16759,17 +16719,22 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Michele Chang</t>
+          <t>Jonathan Swain</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>Markle Foundation</t>
+          <t>Harvard University</t>
         </is>
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>MARKLE FOUNDATION</t>
+          <t>HARVARD UNIVERSITY</t>
         </is>
       </c>
       <c r="H583" t="inlineStr">
@@ -16786,17 +16751,22 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Michael Chodos</t>
+          <t>Xavier Briggs</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>Medsphere Systems Corporation</t>
+          <t>New York University</t>
         </is>
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>MEDSPHERE SYSTEMS CORPORATION</t>
+          <t>NEW YORK UNIVERSITY</t>
         </is>
       </c>
       <c r="H584" t="inlineStr">
@@ -16813,17 +16783,17 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Isabel Guzman</t>
+          <t>Cassius F. Butts</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>State of California, Governor’s Office of Business &amp; Economic Development</t>
+          <t>1st Choice Credit Union</t>
         </is>
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>STATE OF CALIFORNIA</t>
+          <t>1ST CHOICE CREDIT UNION</t>
         </is>
       </c>
       <c r="H585" t="inlineStr">
@@ -16840,17 +16810,22 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Bibi Hidalgo</t>
+          <t>Liyan David Chang</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>Future Partners LLC</t>
+          <t>Devoted Health</t>
         </is>
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>FUTURE PARTNERS</t>
+          <t>DEVOTED HEALTH</t>
         </is>
       </c>
       <c r="H586" t="inlineStr">
@@ -16867,22 +16842,22 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Isabelle James</t>
+          <t>Michele Chang</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>Democratic National Committee</t>
+          <t>Markle Foundation</t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>DEMOCRATIC NATIONAL COMMITTEE</t>
+          <t>MARKLE FOUNDATION</t>
         </is>
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
@@ -16894,17 +16869,17 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Chris James</t>
+          <t>Michael Chodos</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>The National Center for American Indian Enterprise Development</t>
+          <t>Medsphere Systems Corporation</t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>NATIONAL CENTER FOR AMERICAN INDIAN ENTERPRISE DEVELOPMENT</t>
+          <t>MEDSPHERE SYSTEMS CORPORATION</t>
         </is>
       </c>
       <c r="H588" t="inlineStr">
@@ -16921,22 +16896,22 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Laura Jimenez</t>
+          <t>Isabel Guzman</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>Biden for President</t>
+          <t>State of California, Governor’s Office of Business &amp; Economic Development</t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>BIDEN FOR PRESIDENT</t>
+          <t>STATE OF CALIFORNIA</t>
         </is>
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
@@ -16948,17 +16923,17 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Clifton Kellogg</t>
+          <t>Bibi Hidalgo</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>C-PACE Alliance</t>
+          <t>Future Partners LLC</t>
         </is>
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>C-PACE ALLIANCE</t>
+          <t>FUTURE PARTNERS</t>
         </is>
       </c>
       <c r="H590" t="inlineStr">
@@ -16975,22 +16950,22 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Ellen Kim</t>
+          <t>Isabelle James</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>Roti Modern Mediterranean</t>
+          <t>Democratic National Committee</t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>ROTI MODERN MEDITERRANEAN</t>
+          <t>DEMOCRATIC NATIONAL COMMITTEE</t>
         </is>
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
@@ -17002,17 +16977,17 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Arthur Plews</t>
+          <t>Chris James</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>The National Center for American Indian Enterprise Development</t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>STRIPE</t>
+          <t>NATIONAL CENTER FOR AMERICAN INDIAN ENTERPRISE DEVELOPMENT</t>
         </is>
       </c>
       <c r="H592" t="inlineStr">
@@ -17029,22 +17004,22 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Michael Roth</t>
+          <t>Laura Jimenez</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>Next Street</t>
+          <t>Biden for President</t>
         </is>
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>NEXT STREET</t>
+          <t>BIDEN FOR PRESIDENT</t>
         </is>
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
@@ -17056,17 +17031,17 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Meredith Shaffer</t>
+          <t>Clifton Kellogg</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>Public Private Strategies</t>
+          <t>C-PACE Alliance</t>
         </is>
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>PUBLIC PRIVATE STRATEGIES</t>
+          <t>C-PACE ALLIANCE</t>
         </is>
       </c>
       <c r="H594" t="inlineStr">
@@ -17083,17 +17058,17 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Jorge Silva-Puras</t>
+          <t>Ellen Kim</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>Universidad del Sagrado Corazón in San Juan</t>
+          <t>Roti Modern Mediterranean</t>
         </is>
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>UNIVERSIDAD DEL SAGRADO CORAZON IN SAN JUAN</t>
+          <t>ROTI MODERN MEDITERRANEAN</t>
         </is>
       </c>
       <c r="H595" t="inlineStr">
@@ -17110,17 +17085,17 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Christopher Upperman</t>
+          <t>Arthur Plews</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>Facebook, Inc.</t>
+          <t>Stripe</t>
         </is>
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>FACEBOOK</t>
+          <t>STRIPE</t>
         </is>
       </c>
       <c r="H596" t="inlineStr">
@@ -17137,22 +17112,17 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Jeff Zuttah</t>
-        </is>
-      </c>
-      <c r="D597" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Michael Roth</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>Oscar Health</t>
+          <t>Next Street</t>
         </is>
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>OSCAR HEALTH</t>
+          <t>NEXT STREET</t>
         </is>
       </c>
       <c r="H597" t="inlineStr">
@@ -17164,27 +17134,22 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Social Security Administration</t>
+          <t>Small Business Administration</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Carolyn Colvin</t>
-        </is>
-      </c>
-      <c r="C598" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Meredith Shaffer</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public Private Strategies</t>
         </is>
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>PUBLIC PRIVATE STRATEGIES</t>
         </is>
       </c>
       <c r="H598" t="inlineStr">
@@ -17196,22 +17161,22 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Social Security Administration</t>
+          <t>Small Business Administration</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Scott Frey</t>
+          <t>Jorge Silva-Puras</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>American Federation of State, County and Municipal Employees</t>
+          <t>Universidad del Sagrado Corazón in San Juan</t>
         </is>
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>AMERICAN FEDERATION OF STATE COUNTY AND MUNICIPAL EMPLOYEES</t>
+          <t>UNIVERSIDAD DEL SAGRADO CORAZON IN SAN JUAN</t>
         </is>
       </c>
       <c r="H599" t="inlineStr">
@@ -17223,22 +17188,22 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>Social Security Administration</t>
+          <t>Small Business Administration</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>David Holmes</t>
+          <t>Christopher Upperman</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>Rebellion Defense</t>
+          <t>Facebook, Inc.</t>
         </is>
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>REBELLION DEFENSE</t>
+          <t>FACEBOOK</t>
         </is>
       </c>
       <c r="H600" t="inlineStr">
@@ -17250,22 +17215,27 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Social Security Administration</t>
+          <t>Small Business Administration</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Jack Smalligan</t>
+          <t>Jeff Zuttah</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>Urban Institute</t>
+          <t>Oscar Health</t>
         </is>
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>URBAN INSTITUTE</t>
+          <t>OSCAR HEALTH</t>
         </is>
       </c>
       <c r="H601" t="inlineStr">
@@ -17277,12 +17247,12 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>United States Agency for Global Media</t>
+          <t>Social Security Administration</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Richard Stengel</t>
+          <t>Carolyn Colvin</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -17309,22 +17279,22 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>United States Agency for Global Media</t>
+          <t>Social Security Administration</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Rumana Ahmed</t>
+          <t>Scott Frey</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>National Democratic Institute</t>
+          <t>American Federation of State, County and Municipal Employees</t>
         </is>
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>NATIONAL DEMOCRATIC INSTITUTE</t>
+          <t>AMERICAN FEDERATION OF STATE COUNTY AND MUNICIPAL EMPLOYEES</t>
         </is>
       </c>
       <c r="H603" t="inlineStr">
@@ -17336,27 +17306,22 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>United States Agency for Global Media</t>
+          <t>Social Security Administration</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Brian Conniff</t>
+          <t>David Holmes</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>Middle East Broadcasting Networks (Retired)</t>
+          <t>Rebellion Defense</t>
         </is>
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>MIDDLE EAST BROADCASTING NETWORKS</t>
-        </is>
-      </c>
-      <c r="G604" t="inlineStr">
-        <is>
-          <t>(RETIRED)</t>
+          <t>REBELLION DEFENSE</t>
         </is>
       </c>
       <c r="H604" t="inlineStr">
@@ -17368,22 +17333,22 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>United States Agency for Global Media</t>
+          <t>Social Security Administration</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Raina Gardiner</t>
+          <t>Jack Smalligan</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>Juggernaut, LLC</t>
+          <t>Urban Institute</t>
         </is>
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>JUGGERNAUT</t>
+          <t>URBAN INSTITUTE</t>
         </is>
       </c>
       <c r="H605" t="inlineStr">
@@ -17400,7 +17365,12 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Bruce Sherman</t>
+          <t>Richard Stengel</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
@@ -17427,17 +17397,17 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Dana Shell Smith</t>
+          <t>Rumana Ahmed</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>National Democratic Institute</t>
         </is>
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>NATIONAL DEMOCRATIC INSTITUTE</t>
         </is>
       </c>
       <c r="H607" t="inlineStr">
@@ -17454,22 +17424,22 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Margaret Taylor</t>
-        </is>
-      </c>
-      <c r="D608" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Brian Conniff</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>Brookings Institution</t>
+          <t>Middle East Broadcasting Networks (Retired)</t>
         </is>
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>BROOKINGS INSTITUTION</t>
+          <t>MIDDLE EAST BROADCASTING NETWORKS</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>(RETIRED)</t>
         </is>
       </c>
       <c r="H608" t="inlineStr">
@@ -17481,27 +17451,22 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture</t>
+          <t>United States Agency for Global Media</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Robert Bonnie</t>
-        </is>
-      </c>
-      <c r="C609" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Raina Gardiner</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>Duke University, Bipartisan Policy Center</t>
+          <t>Juggernaut, LLC</t>
         </is>
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>DUKE UNIVERSITY</t>
+          <t>JUGGERNAUT</t>
         </is>
       </c>
       <c r="H609" t="inlineStr">
@@ -17513,22 +17478,22 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture</t>
+          <t>United States Agency for Global Media</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Nicholas Anthis</t>
+          <t>Bruce Sherman</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>University of California</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>UNIVERSITY OF CALIFORNIA</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H610" t="inlineStr">
@@ -17540,22 +17505,22 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture</t>
+          <t>United States Agency for Global Media</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Sanah Baig</t>
+          <t>Dana Shell Smith</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>The Good Food Institute</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>GOOD FOOD INSTITUTE</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H611" t="inlineStr">
@@ -17567,22 +17532,27 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture</t>
+          <t>United States Agency for Global Media</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Brooke Barron</t>
+          <t>Margaret Taylor</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>Office of the Speaker, Maine State Legislature</t>
+          <t>Brookings Institution</t>
         </is>
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>OFFICE OF THE SPEAKER MAINE STATE LEGISLATURE</t>
+          <t>BROOKINGS INSTITUTION</t>
         </is>
       </c>
       <c r="H612" t="inlineStr">
@@ -17599,17 +17569,22 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Kumar Chandran</t>
+          <t>Robert Bonnie</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>FoodCorps</t>
+          <t>Duke University, Bipartisan Policy Center</t>
         </is>
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>FOODCORPS</t>
+          <t>DUKE UNIVERSITY</t>
         </is>
       </c>
       <c r="H613" t="inlineStr">
@@ -17626,17 +17601,17 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Jonathan Coppess</t>
+          <t>Nicholas Anthis</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>The University of Illinois</t>
+          <t>University of California</t>
         </is>
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>UNIVERSITY OF ILLINOIS</t>
+          <t>UNIVERSITY OF CALIFORNIA</t>
         </is>
       </c>
       <c r="H614" t="inlineStr">
@@ -17653,17 +17628,17 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Andrea Delgado</t>
+          <t>Sanah Baig</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>UFW Foundation</t>
+          <t>The Good Food Institute</t>
         </is>
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>UFW FOUNDATION</t>
+          <t>GOOD FOOD INSTITUTE</t>
         </is>
       </c>
       <c r="H615" t="inlineStr">
@@ -17680,17 +17655,17 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Debra Eschmeyer</t>
+          <t>Brooke Barron</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>Arizona State University</t>
+          <t>Office of the Speaker, Maine State Legislature</t>
         </is>
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>ARIZONA STATE UNIVERSITY</t>
+          <t>OFFICE OF THE SPEAKER MAINE STATE LEGISLATURE</t>
         </is>
       </c>
       <c r="H616" t="inlineStr">
@@ -17707,17 +17682,17 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Meryl Harrell</t>
+          <t>Kumar Chandran</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>Southern Appalachian Wilderness Stewards</t>
+          <t>FoodCorps</t>
         </is>
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>SOUTHERN APPALACHIAN WILDERNESS STEWARDS</t>
+          <t>FOODCORPS</t>
         </is>
       </c>
       <c r="H617" t="inlineStr">
@@ -17734,17 +17709,17 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>LaQuita Honeysucker</t>
+          <t>Jonathan Coppess</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>The United Food and Commercial Workers International Union</t>
+          <t>The University of Illinois</t>
         </is>
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>UNITED FOOD AND COMMERCIAL WORKERS INTERNATIONAL UNION</t>
+          <t>UNIVERSITY OF ILLINOIS</t>
         </is>
       </c>
       <c r="H618" t="inlineStr">
@@ -17761,22 +17736,22 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Will McIntee</t>
+          <t>Andrea Delgado</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>Biden for President</t>
+          <t>UFW Foundation</t>
         </is>
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>BIDEN FOR PRESIDENT</t>
+          <t>UFW FOUNDATION</t>
         </is>
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
@@ -17788,17 +17763,17 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Bianca Oden</t>
+          <t>Debra Eschmeyer</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>National Resources Defense Council, Inc.</t>
+          <t>Arizona State University</t>
         </is>
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>NATIONAL RESOURCES DEFENSE COUNCIL</t>
+          <t>ARIZONA STATE UNIVERSITY</t>
         </is>
       </c>
       <c r="H620" t="inlineStr">
@@ -17815,17 +17790,17 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>John Padalino</t>
+          <t>Meryl Harrell</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>Bandera Electric Cooperative, Inc.</t>
+          <t>Southern Appalachian Wilderness Stewards</t>
         </is>
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>BANDERA ELECTRIC COOPERATIVE</t>
+          <t>SOUTHERN APPALACHIAN WILDERNESS STEWARDS</t>
         </is>
       </c>
       <c r="H621" t="inlineStr">
@@ -17842,22 +17817,17 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Gregory Parham</t>
+          <t>LaQuita Honeysucker</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture (Retired)</t>
+          <t>The United Food and Commercial Workers International Union</t>
         </is>
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>UNITED STATES DEPARTMENT OF AGRICULTURE</t>
-        </is>
-      </c>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>(RETIRED)</t>
+          <t>UNITED FOOD AND COMMERCIAL WORKERS INTERNATIONAL UNION</t>
         </is>
       </c>
       <c r="H622" t="inlineStr">
@@ -17874,22 +17844,22 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Lisa Pino</t>
+          <t>Will McIntee</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>State of New York, Department of Health</t>
+          <t>Biden for President</t>
         </is>
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>STATE OF NEW YORK</t>
+          <t>BIDEN FOR PRESIDENT</t>
         </is>
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
     </row>
@@ -17901,17 +17871,17 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Amy Pitelka</t>
+          <t>Bianca Oden</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>Barker Pitelka PLLC</t>
+          <t>National Resources Defense Council, Inc.</t>
         </is>
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>BARKER PITELKA PLLC</t>
+          <t>NATIONAL RESOURCES DEFENSE COUNCIL</t>
         </is>
       </c>
       <c r="H624" t="inlineStr">
@@ -17928,17 +17898,17 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Jeffrey Prieto</t>
+          <t>John Padalino</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>Los Angeles Community College District</t>
+          <t>Bandera Electric Cooperative, Inc.</t>
         </is>
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>LOS ANGELES (CITY/COUNTY)</t>
+          <t>BANDERA ELECTRIC COOPERATIVE</t>
         </is>
       </c>
       <c r="H625" t="inlineStr">
@@ -17955,17 +17925,22 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Audrey Rowe</t>
+          <t>Gregory Parham</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>United States Department of Agriculture (Retired)</t>
         </is>
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>UNITED STATES DEPARTMENT OF AGRICULTURE</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>(RETIRED)</t>
         </is>
       </c>
       <c r="H626" t="inlineStr">
@@ -17982,17 +17957,17 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Mike Schmidt</t>
+          <t>Lisa Pino</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
         <is>
-          <t>US Senate Committee on Agriculture, Nutrition and Forestry</t>
+          <t>State of New York, Department of Health</t>
         </is>
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>US SENATE COMMITTEE ON AGRICULTURE NUTRITION AND FORESTRY</t>
+          <t>STATE OF NEW YORK</t>
         </is>
       </c>
       <c r="H627" t="inlineStr">
@@ -18009,17 +17984,17 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Corey Then</t>
+          <t>Amy Pitelka</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>Moneta Group</t>
+          <t>Barker Pitelka PLLC</t>
         </is>
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>MONETA GROUP</t>
+          <t>BARKER PITELKA PLLC</t>
         </is>
       </c>
       <c r="H628" t="inlineStr">
@@ -18031,27 +18006,22 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>United States Digital Service</t>
+          <t>United States Department of Agriculture</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Matt Bailey</t>
-        </is>
-      </c>
-      <c r="C629" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Jeffrey Prieto</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>PEN America</t>
+          <t>Los Angeles Community College District</t>
         </is>
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>PEN AMERICA</t>
+          <t>LOS ANGELES (CITY/COUNTY)</t>
         </is>
       </c>
       <c r="H629" t="inlineStr">
@@ -18063,27 +18033,22 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>United States Digital Service</t>
+          <t>United States Department of Agriculture</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Andrew Nacin</t>
-        </is>
-      </c>
-      <c r="D630" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Audrey Rowe</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>Chan Zuckerberg Initiative</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>CHAN ZUCKERBERG INITIATIVE</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H630" t="inlineStr">
@@ -18095,27 +18060,22 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>United States Mission to the United Nations</t>
+          <t>United States Department of Agriculture</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Isobel Coleman</t>
-        </is>
-      </c>
-      <c r="C631" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Mike Schmidt</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>GiveDirectly</t>
+          <t>US Senate Committee on Agriculture, Nutrition and Forestry</t>
         </is>
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>GIVEDIRECTLY</t>
+          <t>US SENATE COMMITTEE ON AGRICULTURE NUTRITION AND FORESTRY</t>
         </is>
       </c>
       <c r="H631" t="inlineStr">
@@ -18127,22 +18087,22 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>United States Mission to the United Nations</t>
+          <t>United States Department of Agriculture</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Kaysie Brown</t>
+          <t>Corey Then</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>United Nations Foundation</t>
+          <t>Moneta Group</t>
         </is>
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>UNITED NATIONS FOUNDATION</t>
+          <t>MONETA GROUP</t>
         </is>
       </c>
       <c r="H632" t="inlineStr">
@@ -18154,27 +18114,27 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>United States Mission to the United Nations</t>
+          <t>United States Digital Service</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Bathsheba Crocker</t>
-        </is>
-      </c>
-      <c r="D633" t="inlineStr">
+          <t>Matt Bailey</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>CARE</t>
+          <t>PEN America</t>
         </is>
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>CARE</t>
+          <t>PEN AMERICA</t>
         </is>
       </c>
       <c r="H633" t="inlineStr">
@@ -18186,22 +18146,27 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>United States Mission to the United Nations</t>
+          <t>United States Digital Service</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Jeff DeLaurentis</t>
+          <t>Andrew Nacin</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>Georgetown University</t>
+          <t>Chan Zuckerberg Initiative</t>
         </is>
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>GEORGETOWN UNIVERSITY</t>
+          <t>CHAN ZUCKERBERG INITIATIVE</t>
         </is>
       </c>
       <c r="H634" t="inlineStr">
@@ -18218,17 +18183,22 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Mounir Ibrahim</t>
+          <t>Isobel Coleman</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>Truepic, Inc.</t>
+          <t>GiveDirectly</t>
         </is>
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>TRUEPIC</t>
+          <t>GIVEDIRECTLY</t>
         </is>
       </c>
       <c r="H635" t="inlineStr">
@@ -18245,17 +18215,17 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Leonardo Martinez</t>
+          <t>Kaysie Brown</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>World Resources Institute</t>
+          <t>United Nations Foundation</t>
         </is>
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>WORLD RESOURCES INSTITUTE</t>
+          <t>UNITED NATIONS FOUNDATION</t>
         </is>
       </c>
       <c r="H636" t="inlineStr">
@@ -18272,17 +18242,22 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Michael Pan</t>
+          <t>Bathsheba Crocker</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>Open Society Foundations</t>
+          <t>CARE</t>
         </is>
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>OPEN SOCIETY FOUNDATIONS</t>
+          <t>CARE</t>
         </is>
       </c>
       <c r="H637" t="inlineStr">
@@ -18299,17 +18274,17 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Kelly Razzouk</t>
+          <t>Jeff DeLaurentis</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>The International Rescue Committee</t>
+          <t>Georgetown University</t>
         </is>
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>INTERNATIONAL RESCUE COMMITTEE</t>
+          <t>GEORGETOWN UNIVERSITY</t>
         </is>
       </c>
       <c r="H638" t="inlineStr">
@@ -18326,17 +18301,17 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Marco Sanchez</t>
+          <t>Mounir Ibrahim</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>United Nations Foundation</t>
+          <t>Truepic, Inc.</t>
         </is>
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>UNITED NATIONS FOUNDATION</t>
+          <t>TRUEPIC</t>
         </is>
       </c>
       <c r="H639" t="inlineStr">
@@ -18353,17 +18328,17 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Jen Simon</t>
+          <t>Leonardo Martinez</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>World Resources Institute</t>
         </is>
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>SELF-EMPLOYED</t>
+          <t>WORLD RESOURCES INSTITUTE</t>
         </is>
       </c>
       <c r="H640" t="inlineStr">
@@ -18375,27 +18350,22 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>United States Postal Service</t>
+          <t>United States Mission to the United Nations</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Ronald Stroman</t>
-        </is>
-      </c>
-      <c r="C641" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Michael Pan</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>United States Postal Service</t>
+          <t>Open Society Foundations</t>
         </is>
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>UNITED STATES POSTAL SERVICE</t>
+          <t>OPEN SOCIETY FOUNDATIONS</t>
         </is>
       </c>
       <c r="H641" t="inlineStr">
@@ -18407,27 +18377,22 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>United States Postal Service</t>
+          <t>United States Mission to the United Nations</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Xavier Briggs</t>
-        </is>
-      </c>
-      <c r="D642" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Kelly Razzouk</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>New York University</t>
+          <t>The International Rescue Committee</t>
         </is>
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>NEW YORK UNIVERSITY</t>
+          <t>INTERNATIONAL RESCUE COMMITTEE</t>
         </is>
       </c>
       <c r="H642" t="inlineStr">
@@ -18439,22 +18404,22 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>United States Postal Service</t>
+          <t>United States Mission to the United Nations</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Aneesh Chopra</t>
+          <t>Marco Sanchez</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>CareJourney</t>
+          <t>United Nations Foundation</t>
         </is>
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>CAREJOURNEY</t>
+          <t>UNITED NATIONS FOUNDATION</t>
         </is>
       </c>
       <c r="H643" t="inlineStr">
@@ -18466,27 +18431,27 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>United States Postal Service</t>
+          <t>United States Mission to the United Nations</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Mat Hernandez</t>
+          <t>Jen Simon</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>Boston Consulting Group</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>BOSTON CONSULTING GROUP</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
     </row>
@@ -18498,20 +18463,138 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
+          <t>Ronald Stroman</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>United States Postal Service</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>UNITED STATES POSTAL SERVICE</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>United States Postal Service</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Xavier Briggs</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>New York University</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>NEW YORK UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>United States Postal Service</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Aneesh Chopra</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>CareJourney</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>CAREJOURNEY</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>United States Postal Service</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Mat Hernandez</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>Boston Consulting Group</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>BOSTON CONSULTING GROUP</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>Transition — PT Fund, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>United States Postal Service</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
           <t>Jim Sauber</t>
         </is>
       </c>
-      <c r="E645" t="inlineStr">
+      <c r="E649" t="inlineStr">
         <is>
           <t>National Association of Letter Carriers</t>
         </is>
       </c>
-      <c r="F645" t="inlineStr">
+      <c r="F649" t="inlineStr">
         <is>
           <t>NATIONAL ASSOCIATION OF LETTER CARRIERS</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
+      <c r="H649" t="inlineStr">
         <is>
           <t>Volunteer</t>
         </is>

--- a/output/agencyreviewteams.xlsx
+++ b/output/agencyreviewteams.xlsx
@@ -8,23 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITREPOS\gh_kessler\biden_transition_teams\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E0CC4A-0B56-4A46-91FC-47D72D3F6DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E50B974-6FB9-473C-A13A-1D7ECFE59A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8150" yWindow="2140" windowWidth="25860" windowHeight="18850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9620" yWindow="1450" windowWidth="25220" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="all" sheetId="1" r:id="rId1"/>
-    <sheet name="facebookrelated" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$H$696</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="1543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="1543">
   <si>
     <t>agency</t>
   </si>
@@ -5041,8 +5037,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H696"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17387,246 +17384,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0B1A23-5574-4528-87B0-36880E69B1F9}">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="57.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>784</v>
-      </c>
-      <c r="B2" t="s">
-        <v>847</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>848</v>
-      </c>
-      <c r="F2" t="s">
-        <v>849</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E3" t="s">
-        <v>848</v>
-      </c>
-      <c r="F3" t="s">
-        <v>849</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B4" t="s">
-        <v>847</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>848</v>
-      </c>
-      <c r="F4" t="s">
-        <v>849</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1391</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1432</v>
-      </c>
-      <c r="E5" t="s">
-        <v>848</v>
-      </c>
-      <c r="F5" t="s">
-        <v>849</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>499</v>
-      </c>
-      <c r="B6" t="s">
-        <v>542</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>543</v>
-      </c>
-      <c r="F6" t="s">
-        <v>544</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>543</v>
-      </c>
-      <c r="F7" t="s">
-        <v>544</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E8" t="s">
-        <v>543</v>
-      </c>
-      <c r="F8" t="s">
-        <v>544</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>543</v>
-      </c>
-      <c r="F9" t="s">
-        <v>544</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>543</v>
-      </c>
-      <c r="F10" t="s">
-        <v>544</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1511</v>
-      </c>
-      <c r="B11" t="s">
-        <v>542</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>543</v>
-      </c>
-      <c r="F11" t="s">
-        <v>544</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>